--- a/Data_liveEquityMarket.xlsx
+++ b/Data_liveEquityMarket.xlsx
@@ -588,28 +588,28 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17079.5</v>
+        <v>17243.2</v>
       </c>
       <c r="F2" t="n">
-        <v>17172.8</v>
+        <v>17356.25</v>
       </c>
       <c r="G2" t="n">
-        <v>17018.15</v>
+        <v>17154.8</v>
       </c>
       <c r="H2" t="n">
+        <v>17340.05</v>
+      </c>
+      <c r="I2" t="n">
         <v>17158.25</v>
       </c>
-      <c r="I2" t="n">
-        <v>16929.6</v>
-      </c>
       <c r="J2" t="n">
-        <v>228.6500000000015</v>
+        <v>181.7999999999993</v>
       </c>
       <c r="K2" t="n">
-        <v>1.35</v>
+        <v>1.06</v>
       </c>
       <c r="L2" t="n">
-        <v>752451170.01</v>
+        <v>760425061.75</v>
       </c>
       <c r="M2" t="n">
         <v>18604.45</v>
@@ -618,21 +618,21 @@
         <v>15183.4</v>
       </c>
       <c r="O2" t="n">
-        <v>436059722</v>
+        <v>381532671</v>
       </c>
       <c r="P2" t="n">
-        <v>282410008908.91</v>
+        <v>232209181377.21</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>29-Jul-2022 16:00:00</t>
+          <t>01-Aug-2022 16:00:00</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7.773409049985355</v>
+        <v>6.79622348416643</v>
       </c>
       <c r="S2" t="n">
-        <v>-13.00663882924773</v>
+        <v>-14.20399910428494</v>
       </c>
       <c r="T2" t="n">
         <v>8.85</v>
@@ -649,11 +649,11 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X2" t="n">
-        <v>8.73</v>
+        <v>8.93</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
@@ -677,63 +677,63 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>TATAMOTORS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SBILIFEEQN</t>
+          <t>TATAMOTORSEQN</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1262.7</v>
+        <v>451.95</v>
       </c>
       <c r="F3" t="n">
-        <v>1304.7</v>
+        <v>481</v>
       </c>
       <c r="G3" t="n">
-        <v>1241</v>
+        <v>451.05</v>
       </c>
       <c r="H3" t="n">
-        <v>1294</v>
+        <v>480.05</v>
       </c>
       <c r="I3" t="n">
-        <v>1191.45</v>
+        <v>449.6</v>
       </c>
       <c r="J3" t="n">
-        <v>102.55</v>
+        <v>30.45</v>
       </c>
       <c r="K3" t="n">
-        <v>8.609999999999999</v>
+        <v>6.77</v>
       </c>
       <c r="L3" t="n">
-        <v>582734791314</v>
+        <v>859345836116.54</v>
       </c>
       <c r="M3" t="n">
-        <v>1304.7</v>
+        <v>536.7</v>
       </c>
       <c r="N3" t="n">
-        <v>1003.5</v>
+        <v>268.45</v>
       </c>
       <c r="O3" t="n">
-        <v>7628351</v>
+        <v>43084536</v>
       </c>
       <c r="P3" t="n">
-        <v>9815399231.700001</v>
+        <v>20248870229.28</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:16</t>
+          <t>01-Aug-2022 15:59:51</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.8201119031194946</v>
+        <v>10.55524501583753</v>
       </c>
       <c r="S3" t="n">
-        <v>-28.94867962132536</v>
+        <v>-78.82287204321105</v>
       </c>
       <c r="T3" t="n">
-        <v>17.82</v>
+        <v>52.95</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -742,25 +742,25 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/SBILIFE-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/TATAMOTORS-EQ.jpg</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X3" t="n">
-        <v>19.67</v>
+        <v>8.94</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/SBILIFE-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/TATAMOTORS-EQ.jpg</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/SBILIFEEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/TATAMOTORSEQN.jpg</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>{'symbol': 'SBILIFE', 'companyName': 'SBI Life Insurance Company Limited', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE123W01016'}</t>
+          <t>{'symbol': 'TATAMOTORS', 'companyName': 'Tata Motors Limited', 'industry': 'AUTOMOBILES - 4 WHEELERS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE155A01022'}</t>
         </is>
       </c>
     </row>
@@ -783,63 +783,63 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>M&amp;M</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TATASTEELEQN</t>
+          <t>M&amp;MEQN</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>1189.4</v>
       </c>
       <c r="F4" t="n">
-        <v>109.3</v>
+        <v>1248.7</v>
       </c>
       <c r="G4" t="n">
-        <v>102.15</v>
+        <v>1184.25</v>
       </c>
       <c r="H4" t="n">
-        <v>107.8</v>
+        <v>1234.5</v>
       </c>
       <c r="I4" t="n">
-        <v>100.35</v>
+        <v>1164.45</v>
       </c>
       <c r="J4" t="n">
-        <v>7.45</v>
+        <v>70.05</v>
       </c>
       <c r="K4" t="n">
-        <v>7.42</v>
+        <v>6.02</v>
       </c>
       <c r="L4" t="n">
-        <v>867900003474.24</v>
+        <v>1184846409928.72</v>
       </c>
       <c r="M4" t="n">
-        <v>153.45</v>
+        <v>1248.7</v>
       </c>
       <c r="N4" t="n">
-        <v>82.7</v>
+        <v>671.15</v>
       </c>
       <c r="O4" t="n">
-        <v>166959934</v>
+        <v>12673841</v>
       </c>
       <c r="P4" t="n">
-        <v>17814624957.8</v>
+        <v>15659797939.6</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:57</t>
+          <t>01-Aug-2022 15:58:56</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>29.74910394265233</v>
+        <v>1.13718266997678</v>
       </c>
       <c r="S4" t="n">
-        <v>-30.35066505441354</v>
+        <v>-83.9380168367727</v>
       </c>
       <c r="T4" t="n">
-        <v>-92.5</v>
+        <v>56.7</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -848,25 +848,25 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/TATASTEEL-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/M&amp;M-EQ.jpg</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X4" t="n">
-        <v>-87.59</v>
+        <v>5.16</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/TATASTEEL-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/M&amp;M-EQ.jpg</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/TATASTEELEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/M&amp;MEQN.jpg</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>{'symbol': 'TATASTEEL', 'companyName': 'TATA Steel Limited', 'industry': 'STEEL AND STEEL PRODUCTS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['B1', 'E1', 'IL', 'Q1'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': False, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE081A03018'}</t>
+          <t>{'symbol': 'M&amp;M', 'companyName': 'Mahindra &amp; Mahindra Limited', 'industry': 'AUTOMOBILES - 4 WHEELERS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE101A01026'}</t>
         </is>
       </c>
     </row>
@@ -889,63 +889,63 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HINDALCOEQN</t>
+          <t>ADANIPORTSEQN</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>396.5</v>
+        <v>770</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8</v>
+        <v>804</v>
       </c>
       <c r="G5" t="n">
-        <v>395.2</v>
+        <v>765.05</v>
       </c>
       <c r="H5" t="n">
-        <v>416</v>
+        <v>801</v>
       </c>
       <c r="I5" t="n">
-        <v>392.4</v>
+        <v>763.7</v>
       </c>
       <c r="J5" t="n">
-        <v>23.6</v>
+        <v>37.3</v>
       </c>
       <c r="K5" t="n">
-        <v>6.01</v>
+        <v>4.88</v>
       </c>
       <c r="L5" t="n">
-        <v>606247875412.53</v>
+        <v>575463277182.75</v>
       </c>
       <c r="M5" t="n">
-        <v>636</v>
+        <v>924.65</v>
       </c>
       <c r="N5" t="n">
-        <v>308.95</v>
+        <v>651.95</v>
       </c>
       <c r="O5" t="n">
-        <v>15509534</v>
+        <v>6459641</v>
       </c>
       <c r="P5" t="n">
-        <v>6334248780.940001</v>
+        <v>5120234438.65</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:22</t>
+          <t>01-Aug-2022 15:59:54</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>34.59119496855346</v>
+        <v>13.37262748066836</v>
       </c>
       <c r="S5" t="n">
-        <v>-34.64961967955981</v>
+        <v>-22.86218268272106</v>
       </c>
       <c r="T5" t="n">
-        <v>-6.69</v>
+        <v>13.22</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -954,25 +954,25 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/HINDALCO-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/ADANIPORTS-EQ.jpg</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X5" t="n">
-        <v>22.56</v>
+        <v>12.66</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/HINDALCO-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/ADANIPORTS-EQ.jpg</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/HINDALCOEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/ADANIPORTSEQN.jpg</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>{'symbol': 'HINDALCO', 'companyName': 'Hindalco Industries Limited', 'industry': 'ALUMINIUM', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['E1', 'E2', 'P1'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE038A04016'}</t>
+          <t>{'symbol': 'ADANIPORTS', 'companyName': 'Adani Ports and Special Economic Zone Limited', 'industry': 'SHIPPING', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE742F01042'}</t>
         </is>
       </c>
     </row>
@@ -995,63 +995,63 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SUNPHARMAEQN</t>
+          <t>BHARTIARTLEQN</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>897</v>
+        <v>677.95</v>
       </c>
       <c r="F6" t="n">
-        <v>951.95</v>
+        <v>697.8</v>
       </c>
       <c r="G6" t="n">
-        <v>879</v>
+        <v>677.05</v>
       </c>
       <c r="H6" t="n">
-        <v>943.6</v>
+        <v>697</v>
       </c>
       <c r="I6" t="n">
-        <v>894.85</v>
+        <v>677.95</v>
       </c>
       <c r="J6" t="n">
-        <v>48.75</v>
+        <v>22.05</v>
       </c>
       <c r="K6" t="n">
-        <v>5.45</v>
+        <v>3.27</v>
       </c>
       <c r="L6" t="n">
-        <v>1018373734666.8</v>
+        <v>1678132867955.54</v>
       </c>
       <c r="M6" t="n">
-        <v>967.05</v>
+        <v>781.8</v>
       </c>
       <c r="N6" t="n">
-        <v>672.55</v>
+        <v>552.28</v>
       </c>
       <c r="O6" t="n">
-        <v>11315800</v>
+        <v>8812526</v>
       </c>
       <c r="P6" t="n">
-        <v>10487370282</v>
+        <v>6079232935.84</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:58</t>
+          <t>01-Aug-2022 15:59:49</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.424900470503069</v>
+        <v>10.84676387822972</v>
       </c>
       <c r="S6" t="n">
-        <v>-40.30183629469929</v>
+        <v>-26.20409936988485</v>
       </c>
       <c r="T6" t="n">
-        <v>21.87</v>
+        <v>20.71</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1060,25 +1060,25 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/SUNPHARMA-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/BHARTIARTL-EQ.jpg</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X6" t="n">
-        <v>13.56</v>
+        <v>0.67</v>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/SUNPHARMA-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/BHARTIARTL-EQ.jpg</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/SUNPHARMAEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/BHARTIARTLEQN.jpg</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>{'symbol': 'SUNPHARMA', 'companyName': 'Sun Pharmaceutical Industries Limited', 'industry': 'PHARMACEUTICALS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['P1'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE044A04014'}</t>
+          <t>{'symbol': 'BHARTIARTL', 'companyName': 'Bharti Airtel Limited', 'industry': 'TELECOMMUNICATION - SERVICES', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': False, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE397D01024'}</t>
         </is>
       </c>
     </row>
@@ -1101,63 +1101,63 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>COALINDIA</t>
+          <t>ONGC</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COALINDIAEQN</t>
+          <t>ONGCEQN</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>203.6</v>
+        <v>134.1</v>
       </c>
       <c r="F7" t="n">
-        <v>212.45</v>
+        <v>139</v>
       </c>
       <c r="G7" t="n">
-        <v>203.25</v>
+        <v>133.2</v>
       </c>
       <c r="H7" t="n">
-        <v>212</v>
+        <v>138.2</v>
       </c>
       <c r="I7" t="n">
-        <v>202.85</v>
+        <v>134.15</v>
       </c>
       <c r="J7" t="n">
-        <v>9.15</v>
+        <v>4.05</v>
       </c>
       <c r="K7" t="n">
-        <v>4.51</v>
+        <v>3.02</v>
       </c>
       <c r="L7" t="n">
-        <v>442637962086.78</v>
+        <v>539744299054.22</v>
       </c>
       <c r="M7" t="n">
-        <v>212.45</v>
+        <v>194.95</v>
       </c>
       <c r="N7" t="n">
-        <v>132.75</v>
+        <v>108.5</v>
       </c>
       <c r="O7" t="n">
-        <v>12477455</v>
+        <v>20592826</v>
       </c>
       <c r="P7" t="n">
-        <v>2597556581.9</v>
+        <v>2811744462.04</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:49</t>
+          <t>01-Aug-2022 15:59:51</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.2118145445987238</v>
+        <v>29.11002821236215</v>
       </c>
       <c r="S7" t="n">
-        <v>-59.69868173258003</v>
+        <v>-27.37327188940091</v>
       </c>
       <c r="T7" t="n">
-        <v>47.42</v>
+        <v>16.35</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1166,25 +1166,25 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/COALINDIA-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/ONGC-EQ.jpg</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X7" t="n">
-        <v>13.82</v>
+        <v>2.37</v>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/COALINDIA-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/ONGC-EQ.jpg</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/COALINDIAEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/ONGCEQN.jpg</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>{'symbol': 'COALINDIA', 'companyName': 'Coal India Limited', 'industry': 'MINING', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE522F01014'}</t>
+          <t>{'symbol': 'ONGC', 'companyName': 'Oil &amp; Natural Gas Corporation Limited', 'industry': 'OIL EXPLORATION/PRODUCTION', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE213A01029'}</t>
         </is>
       </c>
     </row>
@@ -1207,63 +1207,63 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HDFCLIFE</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HDFCLIFEEQN</t>
+          <t>CIPLAEQN</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>540</v>
+        <v>990</v>
       </c>
       <c r="F8" t="n">
-        <v>560</v>
+        <v>1031</v>
       </c>
       <c r="G8" t="n">
-        <v>534.2</v>
+        <v>988.3</v>
       </c>
       <c r="H8" t="n">
-        <v>554.5</v>
+        <v>1005</v>
       </c>
       <c r="I8" t="n">
-        <v>531.6</v>
+        <v>977.4</v>
       </c>
       <c r="J8" t="n">
-        <v>22.9</v>
+        <v>27.6</v>
       </c>
       <c r="K8" t="n">
-        <v>4.31</v>
+        <v>2.82</v>
       </c>
       <c r="L8" t="n">
-        <v>516477442712.66</v>
+        <v>543087682618.35</v>
       </c>
       <c r="M8" t="n">
-        <v>775.65</v>
+        <v>1083</v>
       </c>
       <c r="N8" t="n">
-        <v>497.05</v>
+        <v>850</v>
       </c>
       <c r="O8" t="n">
-        <v>14236016</v>
+        <v>4647912</v>
       </c>
       <c r="P8" t="n">
-        <v>7788951434.08</v>
+        <v>4680075551.04</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:38</t>
+          <t>01-Aug-2022 15:59:44</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>28.51157094050151</v>
+        <v>7.202216066481994</v>
       </c>
       <c r="S8" t="n">
-        <v>-11.55819334071019</v>
+        <v>-18.23529411764706</v>
       </c>
       <c r="T8" t="n">
-        <v>-16.35</v>
+        <v>6.23</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1272,25 +1272,25 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/HDFCLIFE-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/CIPLA-EQ.jpg</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>2.96</v>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/HDFCLIFE-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/CIPLA-EQ.jpg</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/HDFCLIFEEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/CIPLAEQN.jpg</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>{'symbol': 'HDFCLIFE', 'companyName': 'HDFC Life Insurance Company Limited', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE795G01014'}</t>
+          <t>{'symbol': 'CIPLA', 'companyName': 'Cipla Limited', 'industry': 'PHARMACEUTICALS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE059A01026'}</t>
         </is>
       </c>
     </row>
@@ -1313,63 +1313,63 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ONGC</t>
+          <t>NTPC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ONGCEQN</t>
+          <t>NTPCEQN</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>130.45</v>
+        <v>152.9</v>
       </c>
       <c r="F9" t="n">
-        <v>134.5</v>
+        <v>157.7</v>
       </c>
       <c r="G9" t="n">
-        <v>129.9</v>
+        <v>151</v>
       </c>
       <c r="H9" t="n">
-        <v>134.2</v>
+        <v>157</v>
       </c>
       <c r="I9" t="n">
-        <v>130.25</v>
+        <v>152.95</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="K9" t="n">
-        <v>3.03</v>
+        <v>2.65</v>
       </c>
       <c r="L9" t="n">
-        <v>523169781200.32</v>
+        <v>743588842485.79</v>
       </c>
       <c r="M9" t="n">
-        <v>194.95</v>
+        <v>166.35</v>
       </c>
       <c r="N9" t="n">
-        <v>108.5</v>
+        <v>111.95</v>
       </c>
       <c r="O9" t="n">
-        <v>19738642</v>
+        <v>14221965</v>
       </c>
       <c r="P9" t="n">
-        <v>2627805409.46</v>
+        <v>2191178147.55</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:54</t>
+          <t>01-Aug-2022 15:59:46</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>31.16183636829956</v>
+        <v>5.620679290652236</v>
       </c>
       <c r="S9" t="n">
-        <v>-23.68663594470045</v>
+        <v>-40.24117909781152</v>
       </c>
       <c r="T9" t="n">
-        <v>16.35</v>
+        <v>29.4</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1378,25 +1378,25 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/ONGC-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/NTPC-EQ.jpg</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X9" t="n">
-        <v>-11.48</v>
+        <v>8.75</v>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/ONGC-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/NTPC-EQ.jpg</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/ONGCEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/NTPCEQN.jpg</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>{'symbol': 'ONGC', 'companyName': 'Oil &amp; Natural Gas Corporation Limited', 'industry': 'OIL EXPLORATION/PRODUCTION', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE213A01029'}</t>
+          <t>{'symbol': 'NTPC', 'companyName': 'NTPC Limited', 'industry': 'POWER', 'activeSeries': ['EQ'], 'debtSeries': ['N1', 'N2', 'N3', 'N4', 'N5', 'N6', 'N7', 'N8', 'N9', 'NA', 'NB', 'NC', 'ND'], 'tempSuspendedSeries': ['U1', 'U2', 'U3', 'U4', 'U5', 'U6'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': True, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE733E07JJ9'}</t>
         </is>
       </c>
     </row>
@@ -1419,63 +1419,63 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BAJAJFINSV</t>
+          <t>UPL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BAJAJFINSVEQN</t>
+          <t>UPLEQN</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>15000</v>
+        <v>753</v>
       </c>
       <c r="F10" t="n">
-        <v>15201</v>
+        <v>780.4</v>
       </c>
       <c r="G10" t="n">
-        <v>14812.15</v>
+        <v>744.05</v>
       </c>
       <c r="H10" t="n">
-        <v>15007</v>
+        <v>760</v>
       </c>
       <c r="I10" t="n">
-        <v>14642.05</v>
+        <v>741.1</v>
       </c>
       <c r="J10" t="n">
-        <v>364.95</v>
+        <v>18.9</v>
       </c>
       <c r="K10" t="n">
-        <v>2.49</v>
+        <v>2.55</v>
       </c>
       <c r="L10" t="n">
-        <v>909961908887.0699</v>
+        <v>414704716791.37</v>
       </c>
       <c r="M10" t="n">
-        <v>19325</v>
+        <v>848</v>
       </c>
       <c r="N10" t="n">
-        <v>10727.2</v>
+        <v>607.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1044235</v>
+        <v>7797234</v>
       </c>
       <c r="P10" t="n">
-        <v>15706025364.5</v>
+        <v>5960907420.66</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:42</t>
+          <t>01-Aug-2022 15:59:38</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>22.34411384217335</v>
+        <v>10.37735849056604</v>
       </c>
       <c r="S10" t="n">
-        <v>-39.89671116414348</v>
+        <v>-25.10288065843621</v>
       </c>
       <c r="T10" t="n">
-        <v>5.8</v>
+        <v>-8.34</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1484,25 +1484,25 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/BAJAJFINSV-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/UPL-EQ.jpg</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X10" t="n">
-        <v>37.65</v>
+        <v>15.17</v>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/BAJAJFINSV-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/UPL-EQ.jpg</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/BAJAJFINSVEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/UPLEQN.jpg</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>{'symbol': 'BAJAJFINSV', 'companyName': 'Bajaj Finserv Limited', 'industry': 'FINANCE', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE918I01018'}</t>
+          <t>{'symbol': 'UPL', 'companyName': 'UPL Limited', 'industry': 'PESTICIDES AND AGROCHEMICALS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL', 'Q1', 'Q2'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE628A03016'}</t>
         </is>
       </c>
     </row>
@@ -1525,63 +1525,63 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>JSWSTEEL</t>
+          <t>MARUTI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>JSWSTEELEQN</t>
+          <t>MARUTIEQN</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>623</v>
+        <v>8850</v>
       </c>
       <c r="F11" t="n">
-        <v>637.95</v>
+        <v>9085</v>
       </c>
       <c r="G11" t="n">
-        <v>620.55</v>
+        <v>8822.6</v>
       </c>
       <c r="H11" t="n">
-        <v>631</v>
+        <v>8994.75</v>
       </c>
       <c r="I11" t="n">
-        <v>616.7</v>
+        <v>8773.549999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>14.3</v>
+        <v>221.2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="L11" t="n">
-        <v>608752795609.6</v>
+        <v>1196688949369.76</v>
       </c>
       <c r="M11" t="n">
-        <v>790</v>
+        <v>9085</v>
       </c>
       <c r="N11" t="n">
-        <v>520.05</v>
+        <v>6536.55</v>
       </c>
       <c r="O11" t="n">
-        <v>4732970</v>
+        <v>1009408</v>
       </c>
       <c r="P11" t="n">
-        <v>2989059873.8</v>
+        <v>9071468943.360001</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:58:39</t>
+          <t>01-Aug-2022 15:59:11</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>20.12658227848101</v>
+        <v>0.9933957072096863</v>
       </c>
       <c r="S11" t="n">
-        <v>-21.33448706855111</v>
+        <v>-37.6069945154554</v>
       </c>
       <c r="T11" t="n">
-        <v>-14.57</v>
+        <v>25.74</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1590,25 +1590,25 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/JSWSTEEL-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/MARUTI-EQ.jpg</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X11" t="n">
-        <v>11.53</v>
+        <v>4.41</v>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/JSWSTEEL-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/MARUTI-EQ.jpg</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/JSWSTEELEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/MARUTIEQN.jpg</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>{'symbol': 'JSWSTEEL', 'companyName': 'JSW Steel Limited', 'industry': 'STEEL AND STEEL PRODUCTS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['P1', 'P2'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE019A04024'}</t>
+          <t>{'symbol': 'MARUTI', 'companyName': 'Maruti Suzuki India Limited', 'industry': 'AUTOMOBILES - 4 WHEELERS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE585B01010'}</t>
         </is>
       </c>
     </row>
@@ -1631,63 +1631,63 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HDFC</t>
+          <t>POWERGRID</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HDFCEQN</t>
+          <t>POWERGRIDEQN</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2356</v>
+        <v>215.05</v>
       </c>
       <c r="F12" t="n">
-        <v>2392.7</v>
+        <v>220.15</v>
       </c>
       <c r="G12" t="n">
-        <v>2340.4</v>
+        <v>214.15</v>
       </c>
       <c r="H12" t="n">
-        <v>2389</v>
+        <v>219.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2337.55</v>
+        <v>213.95</v>
       </c>
       <c r="J12" t="n">
-        <v>51.45</v>
+        <v>5.35</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L12" t="n">
-        <v>4307687612697.6</v>
+        <v>748364948240.67</v>
       </c>
       <c r="M12" t="n">
-        <v>3021.1</v>
+        <v>248.35</v>
       </c>
       <c r="N12" t="n">
-        <v>2026</v>
+        <v>167.15</v>
       </c>
       <c r="O12" t="n">
-        <v>5268895</v>
+        <v>9102418</v>
       </c>
       <c r="P12" t="n">
-        <v>12477059493.7</v>
+        <v>1980322060.08</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:41</t>
+          <t>01-Aug-2022 15:59:57</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>20.9228426731985</v>
+        <v>11.69720153009864</v>
       </c>
       <c r="S12" t="n">
-        <v>-17.91707798617966</v>
+        <v>-31.19952138797488</v>
       </c>
       <c r="T12" t="n">
-        <v>-2.6</v>
+        <v>25.01</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1696,25 +1696,25 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/HDFC-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/POWERGRID-EQ.jpg</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X12" t="n">
-        <v>9.529999999999999</v>
+        <v>3.61</v>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/HDFC-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/POWERGRID-EQ.jpg</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/HDFCEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/POWERGRIDEQN.jpg</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>{'symbol': 'HDFC', 'companyName': 'Housing Development Finance Corporation Limited', 'industry': 'FINANCE - HOUSING', 'activeSeries': ['EQ', 'W3'], 'debtSeries': [], 'tempSuspendedSeries': ['W1', 'W2'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE001A13049'}</t>
+          <t>{'symbol': 'POWERGRID', 'companyName': 'Power Grid Corporation of India Limited', 'industry': 'POWER', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE752E01010'}</t>
         </is>
       </c>
     </row>
@@ -1737,63 +1737,63 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>INDUSINDBK</t>
+          <t>RELIANCE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>INDUSINDBKEQN</t>
+          <t>RELIANCEEQN</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1022.2</v>
+        <v>2519.15</v>
       </c>
       <c r="F13" t="n">
-        <v>1049.95</v>
+        <v>2587.75</v>
       </c>
       <c r="G13" t="n">
-        <v>1018.75</v>
+        <v>2507.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1040</v>
+        <v>2569</v>
       </c>
       <c r="I13" t="n">
-        <v>1017.7</v>
+        <v>2509.45</v>
       </c>
       <c r="J13" t="n">
-        <v>22.3</v>
+        <v>59.55</v>
       </c>
       <c r="K13" t="n">
-        <v>2.19</v>
+        <v>2.37</v>
       </c>
       <c r="L13" t="n">
-        <v>679318888307.22</v>
+        <v>8883766144357.109</v>
       </c>
       <c r="M13" t="n">
-        <v>1242</v>
+        <v>2856.15</v>
       </c>
       <c r="N13" t="n">
-        <v>763.2</v>
+        <v>2031.1</v>
       </c>
       <c r="O13" t="n">
-        <v>5862550</v>
+        <v>7245568</v>
       </c>
       <c r="P13" t="n">
-        <v>6067739250</v>
+        <v>18551987041.28</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:58:29</t>
+          <t>01-Aug-2022 15:59:57</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>16.26409017713366</v>
+        <v>10.05374367592739</v>
       </c>
       <c r="S13" t="n">
-        <v>-36.26834381551362</v>
+        <v>-26.48318645069175</v>
       </c>
       <c r="T13" t="n">
-        <v>6.37</v>
+        <v>23.3</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1802,25 +1802,25 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/INDUSINDBK-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/RELIANCE-EQ.jpg</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X13" t="n">
-        <v>31.37</v>
+        <v>4.18</v>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/INDUSINDBK-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/RELIANCE-EQ.jpg</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/INDUSINDBKEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/RELIANCEEQN.jpg</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>{'symbol': 'INDUSINDBK', 'companyName': 'IndusInd Bank Limited', 'industry': 'BANKS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE095A01012'}</t>
+          <t>{'symbol': 'RELIANCE', 'companyName': 'Reliance Industries Limited', 'industry': 'REFINERIES', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE002A01018'}</t>
         </is>
       </c>
     </row>
@@ -1843,63 +1843,63 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RELIANCEEQN</t>
+          <t>KOTAKBANKEQN</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2474.7</v>
+        <v>1815</v>
       </c>
       <c r="F14" t="n">
-        <v>2517.1</v>
+        <v>1862</v>
       </c>
       <c r="G14" t="n">
-        <v>2464</v>
+        <v>1812</v>
       </c>
       <c r="H14" t="n">
-        <v>2507.2</v>
+        <v>1853.05</v>
       </c>
       <c r="I14" t="n">
-        <v>2457.1</v>
+        <v>1810.35</v>
       </c>
       <c r="J14" t="n">
-        <v>50.1</v>
+        <v>42.7</v>
       </c>
       <c r="K14" t="n">
-        <v>2.04</v>
+        <v>2.36</v>
       </c>
       <c r="L14" t="n">
-        <v>8658122590037.07</v>
+        <v>2726113123133.79</v>
       </c>
       <c r="M14" t="n">
-        <v>2856.15</v>
+        <v>2253</v>
       </c>
       <c r="N14" t="n">
-        <v>2016.25</v>
+        <v>1626</v>
       </c>
       <c r="O14" t="n">
-        <v>6982808</v>
+        <v>1655537</v>
       </c>
       <c r="P14" t="n">
-        <v>17417217994.4</v>
+        <v>3042198235.83</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:36</t>
+          <t>01-Aug-2022 15:56:37</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>12.21749557971396</v>
+        <v>17.75188637372393</v>
       </c>
       <c r="S14" t="n">
-        <v>-24.34965902045877</v>
+        <v>-13.96371463714637</v>
       </c>
       <c r="T14" t="n">
-        <v>23.3</v>
+        <v>9.4</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1908,25 +1908,25 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/RELIANCE-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/KOTAKBANK-EQ.jpg</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X14" t="n">
-        <v>-3.32</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/RELIANCE-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/KOTAKBANK-EQ.jpg</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/RELIANCEEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/KOTAKBANKEQN.jpg</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>{'symbol': 'RELIANCE', 'companyName': 'Reliance Industries Limited', 'industry': 'REFINERIES', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE002A01018'}</t>
+          <t>{'symbol': 'KOTAKBANK', 'companyName': 'Kotak Mahindra Bank Limited', 'industry': 'BANKS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE237A01028'}</t>
         </is>
       </c>
     </row>
@@ -1949,63 +1949,63 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>SHREECEM</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>WIPROEQN</t>
+          <t>SHREECEMEQN</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>420.6</v>
+        <v>20625.25</v>
       </c>
       <c r="F15" t="n">
-        <v>424.3</v>
+        <v>20985.15</v>
       </c>
       <c r="G15" t="n">
-        <v>417.8</v>
+        <v>20550</v>
       </c>
       <c r="H15" t="n">
-        <v>423.95</v>
+        <v>20930</v>
       </c>
       <c r="I15" t="n">
-        <v>416</v>
+        <v>20498</v>
       </c>
       <c r="J15" t="n">
-        <v>7.95</v>
+        <v>432</v>
       </c>
       <c r="K15" t="n">
-        <v>1.91</v>
+        <v>2.11</v>
       </c>
       <c r="L15" t="n">
-        <v>627173982574.02</v>
+        <v>279639868491.72</v>
       </c>
       <c r="M15" t="n">
-        <v>739.85</v>
+        <v>31469.95</v>
       </c>
       <c r="N15" t="n">
-        <v>391</v>
+        <v>17865.2</v>
       </c>
       <c r="O15" t="n">
-        <v>7959892</v>
+        <v>32066</v>
       </c>
       <c r="P15" t="n">
-        <v>3359790814.28</v>
+        <v>667507981.54</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:57</t>
+          <t>01-Aug-2022 15:53:38</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>42.69784415759952</v>
+        <v>33.49210913903581</v>
       </c>
       <c r="S15" t="n">
-        <v>-8.42710997442455</v>
+        <v>-17.15513960101202</v>
       </c>
       <c r="T15" t="n">
-        <v>-27.84</v>
+        <v>-27.48</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -2014,25 +2014,25 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/WIPRO-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/SHREECEM-EQ.jpg</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X15" t="n">
-        <v>1.84</v>
+        <v>6.68</v>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/WIPRO-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/SHREECEM-EQ.jpg</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/WIPROEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/SHREECEMEQN.jpg</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>{'symbol': 'WIPRO', 'companyName': 'Wipro Limited', 'industry': 'COMPUTERS - SOFTWARE', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE075A01022'}</t>
+          <t>{'symbol': 'SHREECEM', 'companyName': 'SHREE CEMENT LIMITED', 'industry': 'CEMENT AND CEMENT PRODUCTS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE070A01015'}</t>
         </is>
       </c>
     </row>
@@ -2055,63 +2055,63 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>HINDALCO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>INFYEQN</t>
+          <t>HINDALCOEQN</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1532.8</v>
+        <v>420</v>
       </c>
       <c r="F16" t="n">
-        <v>1555.7</v>
+        <v>428</v>
       </c>
       <c r="G16" t="n">
-        <v>1528</v>
+        <v>418.85</v>
       </c>
       <c r="H16" t="n">
-        <v>1546</v>
+        <v>423.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1517.4</v>
+        <v>415.05</v>
       </c>
       <c r="J16" t="n">
-        <v>28.6</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="L16" t="n">
-        <v>5672640475364.12</v>
+        <v>619320802734.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1953.9</v>
+        <v>636</v>
       </c>
       <c r="N16" t="n">
-        <v>1367.15</v>
+        <v>308.95</v>
       </c>
       <c r="O16" t="n">
-        <v>7009465</v>
+        <v>15535311</v>
       </c>
       <c r="P16" t="n">
-        <v>10845324626.6</v>
+        <v>6582932683.14</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:46</t>
+          <t>01-Aug-2022 15:58:13</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>20.87619632529812</v>
+        <v>33.41194968553459</v>
       </c>
       <c r="S16" t="n">
-        <v>-13.0819588194419</v>
+        <v>-37.07719695743648</v>
       </c>
       <c r="T16" t="n">
-        <v>-3.78</v>
+        <v>-6.69</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -2120,25 +2120,25 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/INFY-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/HINDALCO-EQ.jpg</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X16" t="n">
-        <v>6.01</v>
+        <v>21.66</v>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/INFY-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/HINDALCO-EQ.jpg</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/INFYEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/HINDALCOEQN.jpg</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>{'symbol': 'INFY', 'companyName': 'Infosys Limited', 'industry': 'COMPUTERS - SOFTWARE', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE009A01021'}</t>
+          <t>{'symbol': 'HINDALCO', 'companyName': 'Hindalco Industries Limited', 'industry': 'ALUMINIUM', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['E1', 'E2', 'P1'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE038A04016'}</t>
         </is>
       </c>
     </row>
@@ -2161,63 +2161,63 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>BAJFINANCEEQN</t>
+          <t>APOLLOHOSPEQN</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7175</v>
+        <v>4240</v>
       </c>
       <c r="F17" t="n">
-        <v>7260</v>
+        <v>4293.75</v>
       </c>
       <c r="G17" t="n">
-        <v>7125</v>
+        <v>4190</v>
       </c>
       <c r="H17" t="n">
-        <v>7206</v>
+        <v>4288</v>
       </c>
       <c r="I17" t="n">
-        <v>7076.6</v>
+        <v>4212.3</v>
       </c>
       <c r="J17" t="n">
-        <v>129.4</v>
+        <v>75.7</v>
       </c>
       <c r="K17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1920423948792.93</v>
+        <v>437759721254.01</v>
       </c>
       <c r="M17" t="n">
-        <v>8050</v>
+        <v>5935.4</v>
       </c>
       <c r="N17" t="n">
-        <v>5220</v>
+        <v>3361.55</v>
       </c>
       <c r="O17" t="n">
-        <v>2606762</v>
+        <v>311325</v>
       </c>
       <c r="P17" t="n">
-        <v>18763785687.44</v>
+        <v>1321991800.5</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:58</t>
+          <t>01-Aug-2022 15:56:39</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>10.48447204968944</v>
+        <v>27.7555008929474</v>
       </c>
       <c r="S17" t="n">
-        <v>-38.04597701149425</v>
+        <v>-27.56020288259879</v>
       </c>
       <c r="T17" t="n">
-        <v>15.75</v>
+        <v>4.39</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -2226,25 +2226,25 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/BAJFINANCE-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/APOLLOHOSP-EQ.jpg</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X17" t="n">
-        <v>33.49</v>
+        <v>12.74</v>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/BAJFINANCE-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/APOLLOHOSP-EQ.jpg</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/BAJFINANCEEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/APOLLOHOSPEQN.jpg</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>{'symbol': 'BAJFINANCE', 'companyName': 'Bajaj Finance Limited', 'industry': 'FINANCE', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['N1', 'W1'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE296A13011'}</t>
+          <t>{'symbol': 'APOLLOHOSP', 'companyName': 'Apollo Hospitals Enterprise Limited', 'industry': 'MISCELLANEOUS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE437A01024'}</t>
         </is>
       </c>
     </row>
@@ -2267,63 +2267,63 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ASIANPAINTEQN</t>
+          <t>ULTRACEMCOEQN</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3285.4</v>
+        <v>6587.95</v>
       </c>
       <c r="F18" t="n">
-        <v>3354.35</v>
+        <v>6664</v>
       </c>
       <c r="G18" t="n">
-        <v>3275</v>
+        <v>6560.05</v>
       </c>
       <c r="H18" t="n">
-        <v>3331.95</v>
+        <v>6656</v>
       </c>
       <c r="I18" t="n">
-        <v>3272.4</v>
+        <v>6544.8</v>
       </c>
       <c r="J18" t="n">
-        <v>59.55</v>
+        <v>111.2</v>
       </c>
       <c r="K18" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1502931047233.88</v>
+        <v>768747785811.8199</v>
       </c>
       <c r="M18" t="n">
-        <v>3590</v>
+        <v>8269</v>
       </c>
       <c r="N18" t="n">
-        <v>2560</v>
+        <v>5157.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1836550</v>
+        <v>414339</v>
       </c>
       <c r="P18" t="n">
-        <v>6101808816.5</v>
+        <v>2748066126.99</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:42</t>
+          <t>01-Aug-2022 15:59:30</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>7.188022284122567</v>
+        <v>19.506590881606</v>
       </c>
       <c r="S18" t="n">
-        <v>-30.15429687499999</v>
+        <v>-29.06603581504929</v>
       </c>
       <c r="T18" t="n">
-        <v>12.69</v>
+        <v>-14.1</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2332,25 +2332,25 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/ASIANPAINT-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/ULTRACEMCO-EQ.jpg</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X18" t="n">
-        <v>23.69</v>
+        <v>14.99</v>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/ASIANPAINT-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/ULTRACEMCO-EQ.jpg</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/ASIANPAINTEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/ULTRACEMCOEQN.jpg</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>{'symbol': 'ASIANPAINT', 'companyName': 'Asian Paints Limited', 'industry': 'PAINTS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE021A01026'}</t>
+          <t>{'symbol': 'ULTRACEMCO', 'companyName': 'UltraTech Cement Limited', 'industry': 'CEMENT AND CEMENT PRODUCTS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': False, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE481G01011'}</t>
         </is>
       </c>
     </row>
@@ -2373,63 +2373,63 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>UPLEQN</t>
+          <t>BAJAJ-AUTOEQN</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>737</v>
+        <v>3919.95</v>
       </c>
       <c r="F19" t="n">
-        <v>745</v>
+        <v>3988.25</v>
       </c>
       <c r="G19" t="n">
-        <v>732</v>
+        <v>3915</v>
       </c>
       <c r="H19" t="n">
-        <v>739.9</v>
+        <v>3980.15</v>
       </c>
       <c r="I19" t="n">
-        <v>727.7</v>
+        <v>3914.45</v>
       </c>
       <c r="J19" t="n">
-        <v>12.2</v>
+        <v>65.7</v>
       </c>
       <c r="K19" t="n">
         <v>1.68</v>
       </c>
       <c r="L19" t="n">
-        <v>400518232376.47</v>
+        <v>517383891254.7</v>
       </c>
       <c r="M19" t="n">
-        <v>848</v>
+        <v>4091</v>
       </c>
       <c r="N19" t="n">
-        <v>607.5</v>
+        <v>3027.05</v>
       </c>
       <c r="O19" t="n">
-        <v>1518704</v>
+        <v>459482</v>
       </c>
       <c r="P19" t="n">
-        <v>1123446096.96</v>
+        <v>1819130591.38</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:58:52</t>
+          <t>01-Aug-2022 15:58:48</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>12.74764150943397</v>
+        <v>2.709606453189927</v>
       </c>
       <c r="S19" t="n">
-        <v>-21.79423868312757</v>
+        <v>-31.48610032870286</v>
       </c>
       <c r="T19" t="n">
-        <v>-8.34</v>
+        <v>2.22</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -2438,25 +2438,25 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/UPL-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/BAJAJ-AUTO-EQ.jpg</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X19" t="n">
-        <v>17.19</v>
+        <v>8</v>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/UPL-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/BAJAJ-AUTO-EQ.jpg</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/UPLEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/BAJAJ-AUTOEQN.jpg</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>{'symbol': 'UPL', 'companyName': 'UPL Limited', 'industry': 'PESTICIDES AND AGROCHEMICALS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL', 'Q1', 'Q2'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': False, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE628A03016'}</t>
+          <t>{'symbol': 'BAJAJ-AUTO', 'companyName': 'Bajaj Auto Limited', 'industry': 'AUTOMOBILES - 2 AND 3 WHEELERS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE917I01010'}</t>
         </is>
       </c>
     </row>
@@ -2479,63 +2479,63 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>BHARTIARTLEQN</t>
+          <t>JSWSTEELEQN</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>672.8</v>
+        <v>634.6</v>
       </c>
       <c r="F20" t="n">
-        <v>680.65</v>
+        <v>641</v>
       </c>
       <c r="G20" t="n">
-        <v>671</v>
+        <v>628.25</v>
       </c>
       <c r="H20" t="n">
-        <v>677.95</v>
+        <v>640.15</v>
       </c>
       <c r="I20" t="n">
-        <v>666.85</v>
+        <v>629.6</v>
       </c>
       <c r="J20" t="n">
-        <v>11.1</v>
+        <v>10.55</v>
       </c>
       <c r="K20" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="L20" t="n">
-        <v>1638260749989.86</v>
+        <v>618034922099.2</v>
       </c>
       <c r="M20" t="n">
-        <v>781.8</v>
+        <v>790</v>
       </c>
       <c r="N20" t="n">
-        <v>532.52</v>
+        <v>520.05</v>
       </c>
       <c r="O20" t="n">
-        <v>7669970</v>
+        <v>3055387</v>
       </c>
       <c r="P20" t="n">
-        <v>5183749224.5</v>
+        <v>1938704159.24</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:44</t>
+          <t>01-Aug-2022 15:57:52</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>13.28344845228958</v>
+        <v>18.96835443037975</v>
       </c>
       <c r="S20" t="n">
-        <v>-27.30977240291446</v>
+        <v>-23.09393327564658</v>
       </c>
       <c r="T20" t="n">
-        <v>20.71</v>
+        <v>-14.57</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2544,25 +2544,25 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/BHARTIARTL-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/JSWSTEEL-EQ.jpg</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X20" t="n">
-        <v>-1.02</v>
+        <v>8.77</v>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/BHARTIARTL-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/JSWSTEEL-EQ.jpg</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/BHARTIARTLEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/JSWSTEELEQN.jpg</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>{'symbol': 'BHARTIARTL', 'companyName': 'Bharti Airtel Limited', 'industry': 'TELECOMMUNICATION - SERVICES', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': False, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE397D01024'}</t>
+          <t>{'symbol': 'JSWSTEEL', 'companyName': 'JSW Steel Limited', 'industry': 'STEEL AND STEEL PRODUCTS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['P1', 'P2'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE019A04024'}</t>
         </is>
       </c>
     </row>
@@ -2585,63 +2585,63 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>WIPRO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NTPCEQN</t>
+          <t>WIPROEQN</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>150.95</v>
+        <v>426.2</v>
       </c>
       <c r="F21" t="n">
-        <v>154.45</v>
+        <v>430.9</v>
       </c>
       <c r="G21" t="n">
-        <v>150.45</v>
+        <v>422.6</v>
       </c>
       <c r="H21" t="n">
-        <v>152.85</v>
+        <v>430.5</v>
       </c>
       <c r="I21" t="n">
-        <v>150.35</v>
+        <v>423.7</v>
       </c>
       <c r="J21" t="n">
-        <v>2.5</v>
+        <v>6.8</v>
       </c>
       <c r="K21" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="L21" t="n">
-        <v>726721491745.7</v>
+        <v>635019208223.4</v>
       </c>
       <c r="M21" t="n">
-        <v>166.35</v>
+        <v>739.85</v>
       </c>
       <c r="N21" t="n">
-        <v>111.95</v>
+        <v>391</v>
       </c>
       <c r="O21" t="n">
-        <v>11771461</v>
+        <v>5182874</v>
       </c>
       <c r="P21" t="n">
-        <v>1799032384.63</v>
+        <v>2211998794.46</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29-Jul-2022 16:00:00</t>
+          <t>01-Aug-2022 15:59:57</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>8.115419296663662</v>
+        <v>41.81252956680409</v>
       </c>
       <c r="S21" t="n">
-        <v>-36.53416703885662</v>
+        <v>-10.10230179028133</v>
       </c>
       <c r="T21" t="n">
-        <v>29.4</v>
+        <v>-27.84</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2650,25 +2650,25 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/NTPC-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/WIPRO-EQ.jpg</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X21" t="n">
-        <v>7.03</v>
+        <v>0.4</v>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/NTPC-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/WIPRO-EQ.jpg</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/NTPCEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/WIPROEQN.jpg</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>{'symbol': 'NTPC', 'companyName': 'NTPC Limited', 'industry': 'POWER', 'activeSeries': ['EQ'], 'debtSeries': ['N1', 'N2', 'N3', 'N4', 'N5', 'N6', 'N7', 'N8', 'N9', 'NA', 'NB', 'NC', 'ND'], 'tempSuspendedSeries': ['U1', 'U2', 'U3', 'U4', 'U5', 'U6'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': True, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE733E07JJ9'}</t>
+          <t>{'symbol': 'WIPRO', 'companyName': 'Wipro Limited', 'industry': 'COMPUTERS - SOFTWARE', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE075A01022'}</t>
         </is>
       </c>
     </row>
@@ -2691,63 +2691,63 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TATAMOTORS</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TATAMOTORSEQN</t>
+          <t>ITCEQN</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>445.15</v>
+        <v>304</v>
       </c>
       <c r="F22" t="n">
-        <v>452.7</v>
+        <v>308.8</v>
       </c>
       <c r="G22" t="n">
-        <v>445.15</v>
+        <v>303.1</v>
       </c>
       <c r="H22" t="n">
-        <v>449.25</v>
+        <v>307.8</v>
       </c>
       <c r="I22" t="n">
-        <v>442.25</v>
+        <v>303.05</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="K22" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="L22" t="n">
-        <v>806264373785.47</v>
+        <v>2690474851353.9</v>
       </c>
       <c r="M22" t="n">
-        <v>536.7</v>
+        <v>308.8</v>
       </c>
       <c r="N22" t="n">
-        <v>268.45</v>
+        <v>204.35</v>
       </c>
       <c r="O22" t="n">
-        <v>16004096</v>
+        <v>15889556</v>
       </c>
       <c r="P22" t="n">
-        <v>7189520046.08</v>
+        <v>4872214556.28</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:59</t>
+          <t>01-Aug-2022 15:59:50</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>16.29401900503075</v>
+        <v>0.3238341968911917</v>
       </c>
       <c r="S22" t="n">
-        <v>-67.34959955298939</v>
+        <v>-50.62392953266455</v>
       </c>
       <c r="T22" t="n">
-        <v>52.95</v>
+        <v>47.87</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2756,25 +2756,25 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/TATAMOTORS-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/ITC-EQ.jpg</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X22" t="n">
-        <v>9.18</v>
+        <v>6.58</v>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/TATAMOTORS-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/ITC-EQ.jpg</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/TATAMOTORSEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/ITCEQN.jpg</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>{'symbol': 'TATAMOTORS', 'companyName': 'Tata Motors Limited', 'industry': 'AUTOMOBILES - 4 WHEELERS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE155A01022'}</t>
+          <t>{'symbol': 'ITC', 'companyName': 'ITC Limited', 'industry': 'CIGARETTES', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE154A01025'}</t>
         </is>
       </c>
     </row>
@@ -2797,63 +2797,63 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>GRASIMEQN</t>
+          <t>BPCLEQN</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1556.45</v>
+        <v>331</v>
       </c>
       <c r="F23" t="n">
-        <v>1587.7</v>
+        <v>335.2</v>
       </c>
       <c r="G23" t="n">
-        <v>1555.1</v>
+        <v>327.8</v>
       </c>
       <c r="H23" t="n">
-        <v>1573.25</v>
+        <v>334.6</v>
       </c>
       <c r="I23" t="n">
-        <v>1550.6</v>
+        <v>330.3</v>
       </c>
       <c r="J23" t="n">
-        <v>22.65</v>
+        <v>4.3</v>
       </c>
       <c r="K23" t="n">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="L23" t="n">
-        <v>590234261905.86</v>
+        <v>318936553939.34</v>
       </c>
       <c r="M23" t="n">
-        <v>1929.8</v>
+        <v>503</v>
       </c>
       <c r="N23" t="n">
-        <v>1276.6</v>
+        <v>293.35</v>
       </c>
       <c r="O23" t="n">
-        <v>801509</v>
+        <v>3110792</v>
       </c>
       <c r="P23" t="n">
-        <v>1261294637.85</v>
+        <v>1034245016.24</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:35</t>
+          <t>01-Aug-2022 15:59:15</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>18.47600787646388</v>
+        <v>33.47912524850894</v>
       </c>
       <c r="S23" t="n">
-        <v>-23.23750587498042</v>
+        <v>-14.06170103971365</v>
       </c>
       <c r="T23" t="n">
-        <v>1.4</v>
+        <v>-25.86</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2862,25 +2862,25 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/GRASIM-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/BPCL-EQ.jpg</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X23" t="n">
-        <v>19.1</v>
+        <v>3.75</v>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/GRASIM-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/BPCL-EQ.jpg</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/GRASIMEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/BPCLEQN.jpg</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>{'symbol': 'GRASIM', 'companyName': 'Grasim Industries Limited', 'industry': 'CEMENT AND CEMENT PRODUCTS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE047A01021'}</t>
+          <t>{'symbol': 'BPCL', 'companyName': 'Bharat Petroleum Corporation Limited', 'industry': 'REFINERIES', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE029A01011'}</t>
         </is>
       </c>
     </row>
@@ -2903,63 +2903,63 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>SBILIFE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTOEQN</t>
+          <t>SBILIFEEQN</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3899</v>
+        <v>1300</v>
       </c>
       <c r="F24" t="n">
-        <v>3952.25</v>
+        <v>1317.25</v>
       </c>
       <c r="G24" t="n">
-        <v>3878</v>
+        <v>1287.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3911.7</v>
+        <v>1309</v>
       </c>
       <c r="I24" t="n">
-        <v>3858.25</v>
+        <v>1294.4</v>
       </c>
       <c r="J24" t="n">
-        <v>53.45</v>
+        <v>14.6</v>
       </c>
       <c r="K24" t="n">
-        <v>1.39</v>
+        <v>1.13</v>
       </c>
       <c r="L24" t="n">
-        <v>509720729147.55</v>
+        <v>591243511613.63</v>
       </c>
       <c r="M24" t="n">
-        <v>4091</v>
+        <v>1317.25</v>
       </c>
       <c r="N24" t="n">
-        <v>3027.05</v>
+        <v>1003.5</v>
       </c>
       <c r="O24" t="n">
-        <v>412805</v>
+        <v>2973441</v>
       </c>
       <c r="P24" t="n">
-        <v>1616779678.85</v>
+        <v>3877188657.54</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:53:39</t>
+          <t>01-Aug-2022 15:58:04</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.382791493522371</v>
+        <v>0.6263048016701461</v>
       </c>
       <c r="S24" t="n">
-        <v>-29.22482284732659</v>
+        <v>-30.44344793223717</v>
       </c>
       <c r="T24" t="n">
-        <v>2.22</v>
+        <v>17.82</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2968,25 +2968,25 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/BAJAJ-AUTO-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/SBILIFE-EQ.jpg</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X24" t="n">
-        <v>5.61</v>
+        <v>17.69</v>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/BAJAJ-AUTO-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/SBILIFE-EQ.jpg</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/BAJAJ-AUTOEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/SBILIFEEQN.jpg</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>{'symbol': 'BAJAJ-AUTO', 'companyName': 'Bajaj Auto Limited', 'industry': 'AUTOMOBILES - 2 AND 3 WHEELERS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE917I01010'}</t>
+          <t>{'symbol': 'SBILIFE', 'companyName': 'SBI Life Insurance Company Limited', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE123W01016'}</t>
         </is>
       </c>
     </row>
@@ -3009,63 +3009,63 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>TITAN</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HDFCBANKEQN</t>
+          <t>TITANEQN</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1438</v>
+        <v>2364.8</v>
       </c>
       <c r="F25" t="n">
-        <v>1438.6</v>
+        <v>2381.05</v>
       </c>
       <c r="G25" t="n">
-        <v>1415.3</v>
+        <v>2339</v>
       </c>
       <c r="H25" t="n">
-        <v>1436.4</v>
+        <v>2375.6</v>
       </c>
       <c r="I25" t="n">
-        <v>1416.85</v>
+        <v>2352.05</v>
       </c>
       <c r="J25" t="n">
-        <v>19.55</v>
+        <v>23.55</v>
       </c>
       <c r="K25" t="n">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>6291478566221.09</v>
+        <v>991512875469</v>
       </c>
       <c r="M25" t="n">
-        <v>1725</v>
+        <v>2768</v>
       </c>
       <c r="N25" t="n">
-        <v>1271.6</v>
+        <v>1711.2</v>
       </c>
       <c r="O25" t="n">
-        <v>10009868</v>
+        <v>581266</v>
       </c>
       <c r="P25" t="n">
-        <v>14301298608.96</v>
+        <v>1372084205.66</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:40</t>
+          <t>01-Aug-2022 15:59:44</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>16.73043478260869</v>
+        <v>14.17630057803468</v>
       </c>
       <c r="S25" t="n">
-        <v>-12.96005033029256</v>
+        <v>-38.82655446470312</v>
       </c>
       <c r="T25" t="n">
-        <v>0.54</v>
+        <v>37.18</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -3074,25 +3074,25 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/HDFCBANK-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/TITAN-EQ.jpg</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X25" t="n">
-        <v>6.39</v>
+        <v>20.85</v>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/HDFCBANK-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/TITAN-EQ.jpg</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/HDFCBANKEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/TITANEQN.jpg</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>{'symbol': 'HDFCBANK', 'companyName': 'HDFC Bank Limited', 'industry': 'BANKS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE040A01034'}</t>
+          <t>{'symbol': 'TITAN', 'companyName': 'Titan Company Limited', 'industry': 'GEMS JEWELLERY AND WATCHES', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL', 'N1'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE280A07025'}</t>
         </is>
       </c>
     </row>
@@ -3115,63 +3115,63 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>SBIN</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TCSEQN</t>
+          <t>SBINEQN</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3290</v>
+        <v>529.05</v>
       </c>
       <c r="F26" t="n">
-        <v>3317.3</v>
+        <v>535</v>
       </c>
       <c r="G26" t="n">
-        <v>3275</v>
+        <v>526.4</v>
       </c>
       <c r="H26" t="n">
-        <v>3302</v>
+        <v>533.35</v>
       </c>
       <c r="I26" t="n">
-        <v>3260.5</v>
+        <v>528.35</v>
       </c>
       <c r="J26" t="n">
-        <v>41.5</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>1.27</v>
+        <v>0.95</v>
       </c>
       <c r="L26" t="n">
-        <v>3419891363982.44</v>
+        <v>2048309950599.68</v>
       </c>
       <c r="M26" t="n">
-        <v>4043</v>
+        <v>549</v>
       </c>
       <c r="N26" t="n">
-        <v>2953</v>
+        <v>401.25</v>
       </c>
       <c r="O26" t="n">
-        <v>2430257</v>
+        <v>8295631</v>
       </c>
       <c r="P26" t="n">
-        <v>8011463713.35</v>
+        <v>4415764381.299999</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:50</t>
+          <t>01-Aug-2022 15:59:57</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>18.32797427652733</v>
+        <v>2.850637522768666</v>
       </c>
       <c r="S26" t="n">
-        <v>-11.81848967152049</v>
+        <v>-32.92211838006231</v>
       </c>
       <c r="T26" t="n">
-        <v>4.24</v>
+        <v>22.36</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
@@ -3180,25 +3180,25 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/TCS-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/SBIN-EQ.jpg</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X26" t="n">
-        <v>1.07</v>
+        <v>13.17</v>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/TCS-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/SBIN-EQ.jpg</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/TCSEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/SBINEQN.jpg</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>{'symbol': 'TCS', 'companyName': 'Tata Consultancy Services Limited', 'industry': 'COMPUTERS - SOFTWARE', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE467B01029'}</t>
+          <t>{'symbol': 'SBIN', 'companyName': 'State Bank of India', 'industry': 'BANKS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL', 'N1', 'N2', 'N3', 'N4', 'N5', 'N6'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE062A08066'}</t>
         </is>
       </c>
     </row>
@@ -3221,63 +3221,63 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
+          <t>AXISBANK</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NESTLEINDEQN</t>
+          <t>AXISBANKEQN</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>19112.4</v>
+        <v>726</v>
       </c>
       <c r="F27" t="n">
-        <v>19423.05</v>
+        <v>732.3</v>
       </c>
       <c r="G27" t="n">
-        <v>19001.05</v>
+        <v>720.4</v>
       </c>
       <c r="H27" t="n">
-        <v>19350</v>
+        <v>730.4</v>
       </c>
       <c r="I27" t="n">
-        <v>19112.4</v>
+        <v>724.75</v>
       </c>
       <c r="J27" t="n">
-        <v>237.6</v>
+        <v>5.65</v>
       </c>
       <c r="K27" t="n">
-        <v>1.24</v>
+        <v>0.78</v>
       </c>
       <c r="L27" t="n">
-        <v>690612950417.77</v>
+        <v>1930317470273.81</v>
       </c>
       <c r="M27" t="n">
-        <v>20609.15</v>
+        <v>866.9</v>
       </c>
       <c r="N27" t="n">
-        <v>16000</v>
+        <v>618.25</v>
       </c>
       <c r="O27" t="n">
-        <v>113825</v>
+        <v>5493105</v>
       </c>
       <c r="P27" t="n">
-        <v>2187747232.75</v>
+        <v>3998870577.9</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:52:37</t>
+          <t>01-Aug-2022 15:59:35</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>6.109664881860733</v>
+        <v>15.74576075671935</v>
       </c>
       <c r="S27" t="n">
-        <v>-20.9375</v>
+        <v>-18.13991103922361</v>
       </c>
       <c r="T27" t="n">
-        <v>9.359999999999999</v>
+        <v>2.24</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -3286,25 +3286,25 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/NESTLEIND-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/AXISBANK-EQ.jpg</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X27" t="n">
-        <v>10.81</v>
+        <v>12.55</v>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/NESTLEIND-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/AXISBANK-EQ.jpg</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/NESTLEINDEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/AXISBANKEQN.jpg</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>{'symbol': 'NESTLEIND', 'companyName': 'Nestle India Limited', 'industry': 'FOOD AND FOOD PROCESSING', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE239A01016'}</t>
+          <t>{'symbol': 'AXISBANK', 'companyName': 'Axis Bank Limited', 'industry': 'BANKS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE238A01034'}</t>
         </is>
       </c>
     </row>
@@ -3327,63 +3327,63 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CIPLAEQN</t>
+          <t>ICICIBANKEQN</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>973.7</v>
+        <v>820.7</v>
       </c>
       <c r="F28" t="n">
-        <v>983.95</v>
+        <v>825</v>
       </c>
       <c r="G28" t="n">
-        <v>953</v>
+        <v>817.3</v>
       </c>
       <c r="H28" t="n">
-        <v>979</v>
+        <v>824.45</v>
       </c>
       <c r="I28" t="n">
-        <v>967.45</v>
+        <v>818.6</v>
       </c>
       <c r="J28" t="n">
-        <v>11.55</v>
+        <v>5.85</v>
       </c>
       <c r="K28" t="n">
-        <v>1.19</v>
+        <v>0.71</v>
       </c>
       <c r="L28" t="n">
-        <v>528409637142.17</v>
+        <v>5726966249188.2</v>
       </c>
       <c r="M28" t="n">
-        <v>1083</v>
+        <v>867</v>
       </c>
       <c r="N28" t="n">
-        <v>850</v>
+        <v>642.15</v>
       </c>
       <c r="O28" t="n">
-        <v>2941566</v>
+        <v>7974903</v>
       </c>
       <c r="P28" t="n">
-        <v>2846876990.46</v>
+        <v>6559836211.679999</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:57:53</t>
+          <t>01-Aug-2022 15:59:53</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>9.602954755309327</v>
+        <v>4.907727797001148</v>
       </c>
       <c r="S28" t="n">
-        <v>-15.17647058823529</v>
+        <v>-28.38900568403022</v>
       </c>
       <c r="T28" t="n">
-        <v>6.23</v>
+        <v>19.94</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3392,25 +3392,25 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/CIPLA-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/ICICIBANK-EQ.jpg</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X28" t="n">
-        <v>6.56</v>
+        <v>16.29</v>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/CIPLA-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/ICICIBANK-EQ.jpg</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/CIPLAEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/ICICIBANKEQN.jpg</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>{'symbol': 'CIPLA', 'companyName': 'Cipla Limited', 'industry': 'PHARMACEUTICALS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE059A01026'}</t>
+          <t>{'symbol': 'ICICIBANK', 'companyName': 'ICICI Bank Limited', 'industry': 'BANKS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['E2', 'IL'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE090A01021'}</t>
         </is>
       </c>
     </row>
@@ -3433,63 +3433,63 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>M&amp;MEQN</t>
+          <t>HEROMOTOCOEQN</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1158.8</v>
+        <v>2834.95</v>
       </c>
       <c r="F29" t="n">
-        <v>1184.2</v>
+        <v>2908</v>
       </c>
       <c r="G29" t="n">
-        <v>1153.25</v>
+        <v>2820</v>
       </c>
       <c r="H29" t="n">
-        <v>1162.65</v>
+        <v>2838</v>
       </c>
       <c r="I29" t="n">
-        <v>1149.15</v>
+        <v>2818.05</v>
       </c>
       <c r="J29" t="n">
-        <v>13.5</v>
+        <v>19.95</v>
       </c>
       <c r="K29" t="n">
-        <v>1.17</v>
+        <v>0.71</v>
       </c>
       <c r="L29" t="n">
-        <v>1114679379552.82</v>
+        <v>368969139137.56</v>
       </c>
       <c r="M29" t="n">
-        <v>1195</v>
+        <v>2954.45</v>
       </c>
       <c r="N29" t="n">
-        <v>671.15</v>
+        <v>2146.85</v>
       </c>
       <c r="O29" t="n">
-        <v>2230572</v>
+        <v>961562</v>
       </c>
       <c r="P29" t="n">
-        <v>2601873015.12</v>
+        <v>2747394177.64</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:57:53</t>
+          <t>01-Aug-2022 15:59:47</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.70711297071129</v>
+        <v>3.941511956540129</v>
       </c>
       <c r="S29" t="n">
-        <v>-73.23251136109666</v>
+        <v>-32.19367911125603</v>
       </c>
       <c r="T29" t="n">
-        <v>56.7</v>
+        <v>1.98</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
@@ -3498,25 +3498,25 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/M&amp;M-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/HEROMOTOCO-EQ.jpg</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X29" t="n">
-        <v>6.52</v>
+        <v>1.96</v>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/M&amp;M-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/HEROMOTOCO-EQ.jpg</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/M&amp;MEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/HEROMOTOCOEQN.jpg</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>{'symbol': 'M&amp;M', 'companyName': 'Mahindra &amp; Mahindra Limited', 'industry': 'AUTOMOBILES - 4 WHEELERS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE101A01026'}</t>
+          <t>{'symbol': 'HEROMOTOCO', 'companyName': 'Hero MotoCorp Limited', 'industry': 'AUTOMOBILES - 2 AND 3 WHEELERS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE158A01026'}</t>
         </is>
       </c>
     </row>
@@ -3539,63 +3539,63 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>HDFCBANK</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TECHMEQN</t>
+          <t>HDFCBANKEQN</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1055</v>
+        <v>1439</v>
       </c>
       <c r="F30" t="n">
-        <v>1068</v>
+        <v>1448.45</v>
       </c>
       <c r="G30" t="n">
-        <v>1044.1</v>
+        <v>1430.05</v>
       </c>
       <c r="H30" t="n">
-        <v>1050</v>
+        <v>1442.9</v>
       </c>
       <c r="I30" t="n">
-        <v>1038</v>
+        <v>1434.2</v>
       </c>
       <c r="J30" t="n">
-        <v>12</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>1.16</v>
+        <v>0.61</v>
       </c>
       <c r="L30" t="n">
-        <v>662823612511.42</v>
+        <v>6343900243020.94</v>
       </c>
       <c r="M30" t="n">
-        <v>1838</v>
+        <v>1725</v>
       </c>
       <c r="N30" t="n">
-        <v>943.7</v>
+        <v>1271.6</v>
       </c>
       <c r="O30" t="n">
-        <v>6185909</v>
+        <v>6596518</v>
       </c>
       <c r="P30" t="n">
-        <v>6523412195.04</v>
+        <v>9503999273.68</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:06</t>
+          <t>01-Aug-2022 15:59:53</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>42.87268770402611</v>
+        <v>16.35362318840579</v>
       </c>
       <c r="S30" t="n">
-        <v>-11.2641729363145</v>
+        <v>-13.47121736395094</v>
       </c>
       <c r="T30" t="n">
-        <v>-13.3</v>
+        <v>0.54</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -3604,25 +3604,25 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/TECHM-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/HDFCBANK-EQ.jpg</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X30" t="n">
-        <v>4.87</v>
+        <v>5.94</v>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/TECHM-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/HDFCBANK-EQ.jpg</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/TECHMEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/HDFCBANKEQN.jpg</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>{'symbol': 'TECHM', 'companyName': 'Tech Mahindra Limited', 'industry': 'COMPUTERS - SOFTWARE', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE669C01036'}</t>
+          <t>{'symbol': 'HDFCBANK', 'companyName': 'HDFC Bank Limited', 'industry': 'BANKS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE040A01034'}</t>
         </is>
       </c>
     </row>
@@ -3645,63 +3645,63 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BPCL</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>BPCLEQN</t>
+          <t>TATASTEELEQN</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>327.05</v>
+        <v>110.5</v>
       </c>
       <c r="F31" t="n">
-        <v>331.15</v>
+        <v>111.45</v>
       </c>
       <c r="G31" t="n">
-        <v>325.2</v>
+        <v>106.15</v>
       </c>
       <c r="H31" t="n">
-        <v>329.8</v>
+        <v>108.25</v>
       </c>
       <c r="I31" t="n">
-        <v>326.05</v>
+        <v>107.6</v>
       </c>
       <c r="J31" t="n">
-        <v>3.75</v>
+        <v>0.65</v>
       </c>
       <c r="K31" t="n">
-        <v>1.15</v>
+        <v>0.6</v>
       </c>
       <c r="L31" t="n">
-        <v>315261839791.01</v>
+        <v>873142893829.8</v>
       </c>
       <c r="M31" t="n">
-        <v>503</v>
+        <v>153.45</v>
       </c>
       <c r="N31" t="n">
-        <v>293.35</v>
+        <v>82.7</v>
       </c>
       <c r="O31" t="n">
-        <v>4802883</v>
+        <v>125365761</v>
       </c>
       <c r="P31" t="n">
-        <v>1577170719.54</v>
+        <v>13592155807.62</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:50</t>
+          <t>01-Aug-2022 15:59:54</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>34.43339960238568</v>
+        <v>29.45584881068752</v>
       </c>
       <c r="S31" t="n">
-        <v>-12.42543037327424</v>
+        <v>-30.89480048367593</v>
       </c>
       <c r="T31" t="n">
-        <v>-25.86</v>
+        <v>-92.5</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -3710,25 +3710,25 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/BPCL-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/TATASTEEL-EQ.jpg</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X31" t="n">
-        <v>7.1</v>
+        <v>-87.67</v>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/BPCL-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/TATASTEEL-EQ.jpg</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/BPCLEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/TATASTEELEQN.jpg</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>{'symbol': 'BPCL', 'companyName': 'Bharat Petroleum Corporation Limited', 'industry': 'REFINERIES', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE029A01011'}</t>
+          <t>{'symbol': 'TATASTEEL', 'companyName': 'TATA Steel Limited', 'industry': 'STEEL AND STEEL PRODUCTS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['B1', 'E1', 'IL', 'Q1'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE081A03018'}</t>
         </is>
       </c>
     </row>
@@ -3751,63 +3751,63 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HEROMOTOCOEQN</t>
+          <t>BAJFINANCEEQN</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2800</v>
+        <v>7251.05</v>
       </c>
       <c r="F32" t="n">
-        <v>2846.8</v>
+        <v>7310</v>
       </c>
       <c r="G32" t="n">
-        <v>2789.6</v>
+        <v>7192</v>
       </c>
       <c r="H32" t="n">
-        <v>2807.05</v>
+        <v>7252.3</v>
       </c>
       <c r="I32" t="n">
-        <v>2780.7</v>
+        <v>7209.1</v>
       </c>
       <c r="J32" t="n">
-        <v>26.35</v>
+        <v>43.2</v>
       </c>
       <c r="K32" t="n">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="L32" t="n">
-        <v>366014320806.32</v>
+        <v>1934249530757.72</v>
       </c>
       <c r="M32" t="n">
-        <v>2954.45</v>
+        <v>8050</v>
       </c>
       <c r="N32" t="n">
-        <v>2146.85</v>
+        <v>5220</v>
       </c>
       <c r="O32" t="n">
-        <v>400652</v>
+        <v>1227077</v>
       </c>
       <c r="P32" t="n">
-        <v>1130195220.28</v>
+        <v>8906480718.33</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:58:47</t>
+          <t>01-Aug-2022 15:59:22</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.989084262722322</v>
+        <v>9.909316770186333</v>
       </c>
       <c r="S32" t="n">
-        <v>-30.75203204695253</v>
+        <v>-38.93295019157089</v>
       </c>
       <c r="T32" t="n">
-        <v>1.98</v>
+        <v>15.75</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -3816,25 +3816,25 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/HEROMOTOCO-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/BAJFINANCE-EQ.jpg</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X32" t="n">
-        <v>3.62</v>
+        <v>28.4</v>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/HEROMOTOCO-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/BAJFINANCE-EQ.jpg</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/HEROMOTOCOEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/BAJFINANCEEQN.jpg</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>{'symbol': 'HEROMOTOCO', 'companyName': 'Hero MotoCorp Limited', 'industry': 'AUTOMOBILES - 2 AND 3 WHEELERS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': False, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE158A01026'}</t>
+          <t>{'symbol': 'BAJFINANCE', 'companyName': 'Bajaj Finance Limited', 'industry': 'FINANCE', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['N1', 'W1'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE296A13011'}</t>
         </is>
       </c>
     </row>
@@ -3857,63 +3857,63 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>DRREDDY</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ULTRACEMCOEQN</t>
+          <t>DRREDDYEQN</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6539.7</v>
+        <v>4139.8</v>
       </c>
       <c r="F33" t="n">
-        <v>6577.25</v>
+        <v>4139.8</v>
       </c>
       <c r="G33" t="n">
-        <v>6490</v>
+        <v>4100.5</v>
       </c>
       <c r="H33" t="n">
-        <v>6530</v>
+        <v>4111.15</v>
       </c>
       <c r="I33" t="n">
-        <v>6471.25</v>
+        <v>4090.35</v>
       </c>
       <c r="J33" t="n">
-        <v>58.75</v>
+        <v>20.8</v>
       </c>
       <c r="K33" t="n">
-        <v>0.91</v>
+        <v>0.51</v>
       </c>
       <c r="L33" t="n">
-        <v>755717183778.24</v>
+        <v>499382145646.1</v>
       </c>
       <c r="M33" t="n">
-        <v>8269</v>
+        <v>5077</v>
       </c>
       <c r="N33" t="n">
-        <v>5157.05</v>
+        <v>3654</v>
       </c>
       <c r="O33" t="n">
-        <v>360851</v>
+        <v>427370</v>
       </c>
       <c r="P33" t="n">
-        <v>2357565880.85</v>
+        <v>1759354079</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:57:38</t>
+          <t>01-Aug-2022 15:58:45</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>21.03035433546983</v>
+        <v>19.02402993894032</v>
       </c>
       <c r="S33" t="n">
-        <v>-26.62277852648316</v>
+        <v>-12.51094690749862</v>
       </c>
       <c r="T33" t="n">
-        <v>-14.1</v>
+        <v>-13.18</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3922,25 +3922,25 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/ULTRACEMCO-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/DRREDDY-EQ.jpg</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X33" t="n">
-        <v>16.72</v>
+        <v>-6.74</v>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/ULTRACEMCO-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/DRREDDY-EQ.jpg</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/ULTRACEMCOEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/DRREDDYEQN.jpg</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>{'symbol': 'ULTRACEMCO', 'companyName': 'UltraTech Cement Limited', 'industry': 'CEMENT AND CEMENT PRODUCTS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE481G01011'}</t>
+          <t>{'symbol': 'DRREDDY', 'companyName': "Dr. Reddy's Laboratories Limited", 'industry': 'PHARMACEUTICALS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['N1'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE089A08051'}</t>
         </is>
       </c>
     </row>
@@ -3963,63 +3963,63 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>COALINDIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TITANEQN</t>
+          <t>COALINDIAEQN</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2355</v>
+        <v>212.5</v>
       </c>
       <c r="F34" t="n">
-        <v>2392.5</v>
+        <v>213.7</v>
       </c>
       <c r="G34" t="n">
-        <v>2339.05</v>
+        <v>209.8</v>
       </c>
       <c r="H34" t="n">
-        <v>2355</v>
+        <v>212.3</v>
       </c>
       <c r="I34" t="n">
-        <v>2334.65</v>
+        <v>211.25</v>
       </c>
       <c r="J34" t="n">
-        <v>20.35</v>
+        <v>1.05</v>
       </c>
       <c r="K34" t="n">
-        <v>0.87</v>
+        <v>0.5</v>
       </c>
       <c r="L34" t="n">
-        <v>981415195685.16</v>
+        <v>445780953533.55</v>
       </c>
       <c r="M34" t="n">
-        <v>2768</v>
+        <v>213.7</v>
       </c>
       <c r="N34" t="n">
-        <v>1711.2</v>
+        <v>132.75</v>
       </c>
       <c r="O34" t="n">
-        <v>1239445</v>
+        <v>7849924</v>
       </c>
       <c r="P34" t="n">
-        <v>2930221502.3</v>
+        <v>1663555894.08</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:58:05</t>
+          <t>01-Aug-2022 15:58:32</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>14.92052023121387</v>
+        <v>0.655124005615338</v>
       </c>
       <c r="S34" t="n">
-        <v>-37.6227208976157</v>
+        <v>-59.92467043314502</v>
       </c>
       <c r="T34" t="n">
-        <v>37.18</v>
+        <v>47.42</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -4028,25 +4028,25 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/TITAN-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/COALINDIA-EQ.jpg</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X34" t="n">
-        <v>21.16</v>
+        <v>15.28</v>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/TITAN-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/COALINDIA-EQ.jpg</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/TITANEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/COALINDIAEQN.jpg</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>{'symbol': 'TITAN', 'companyName': 'Titan Company Limited', 'industry': 'GEMS JEWELLERY AND WATCHES', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL', 'N1'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE280A07025'}</t>
+          <t>{'symbol': 'COALINDIA', 'companyName': 'Coal India Limited', 'industry': 'MINING', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE522F01014'}</t>
         </is>
       </c>
     </row>
@@ -4069,63 +4069,63 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>HCLTECH</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>EICHERMOTEQN</t>
+          <t>HCLTECHEQN</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3083</v>
+        <v>954</v>
       </c>
       <c r="F35" t="n">
-        <v>3145</v>
+        <v>956.5</v>
       </c>
       <c r="G35" t="n">
-        <v>3066.4</v>
+        <v>945.2</v>
       </c>
       <c r="H35" t="n">
-        <v>3079.25</v>
+        <v>952.65</v>
       </c>
       <c r="I35" t="n">
-        <v>3054</v>
+        <v>948.4</v>
       </c>
       <c r="J35" t="n">
-        <v>25.25</v>
+        <v>4.25</v>
       </c>
       <c r="K35" t="n">
-        <v>0.83</v>
+        <v>0.45</v>
       </c>
       <c r="L35" t="n">
-        <v>431377625931.89</v>
+        <v>1007688326251</v>
       </c>
       <c r="M35" t="n">
-        <v>3179</v>
+        <v>1377.75</v>
       </c>
       <c r="N35" t="n">
-        <v>2159.55</v>
+        <v>877.35</v>
       </c>
       <c r="O35" t="n">
-        <v>570564</v>
+        <v>2489519</v>
       </c>
       <c r="P35" t="n">
-        <v>1770100636.68</v>
+        <v>2370644467.75</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:04</t>
+          <t>01-Aug-2022 15:59:44</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.13777917584146</v>
+        <v>30.85465432770822</v>
       </c>
       <c r="S35" t="n">
-        <v>-42.5875761153944</v>
+        <v>-8.582663703197122</v>
       </c>
       <c r="T35" t="n">
-        <v>22.26</v>
+        <v>-7.47</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -4134,25 +4134,25 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/EICHERMOT-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/HCLTECH-EQ.jpg</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X35" t="n">
-        <v>10.7</v>
+        <v>-2.76</v>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/EICHERMOT-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/HCLTECH-EQ.jpg</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/EICHERMOTEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/HCLTECHEQN.jpg</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>{'symbol': 'EICHERMOT', 'companyName': 'Eicher Motors Limited', 'industry': 'AUTOMOBILES - 4 WHEELERS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE066A01021'}</t>
+          <t>{'symbol': 'HCLTECH', 'companyName': 'HCL Technologies Limited', 'industry': 'COMPUTERS - SOFTWARE', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE860A01027'}</t>
         </is>
       </c>
     </row>
@@ -4175,63 +4175,63 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BRITANNIA</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>BRITANNIAEQN</t>
+          <t>LTEQN</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3883</v>
+        <v>1808</v>
       </c>
       <c r="F36" t="n">
-        <v>3949.35</v>
+        <v>1817.85</v>
       </c>
       <c r="G36" t="n">
-        <v>3876.9</v>
+        <v>1790.3</v>
       </c>
       <c r="H36" t="n">
-        <v>3892.6</v>
+        <v>1813</v>
       </c>
       <c r="I36" t="n">
-        <v>3869.35</v>
+        <v>1808.05</v>
       </c>
       <c r="J36" t="n">
-        <v>23.25</v>
+        <v>4.95</v>
       </c>
       <c r="K36" t="n">
-        <v>0.6</v>
+        <v>0.27</v>
       </c>
       <c r="L36" t="n">
-        <v>460346523842.02</v>
+        <v>2192928647991.88</v>
       </c>
       <c r="M36" t="n">
-        <v>4153</v>
+        <v>2078.55</v>
       </c>
       <c r="N36" t="n">
-        <v>3050</v>
+        <v>1456.35</v>
       </c>
       <c r="O36" t="n">
-        <v>418970</v>
+        <v>1341943</v>
       </c>
       <c r="P36" t="n">
-        <v>1637255155.7</v>
+        <v>2422851247.64</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:57:43</t>
+          <t>01-Aug-2022 15:58:55</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>6.270166144955455</v>
+        <v>12.77573308315894</v>
       </c>
       <c r="S36" t="n">
-        <v>-27.62622950819672</v>
+        <v>-24.48930545541938</v>
       </c>
       <c r="T36" t="n">
-        <v>13.93</v>
+        <v>12.9</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -4240,25 +4240,25 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/BRITANNIA-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/LT-EQ.jpg</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X36" t="n">
-        <v>12.52</v>
+        <v>15</v>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/BRITANNIA-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/LT-EQ.jpg</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/BRITANNIAEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/LTEQN.jpg</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>{'symbol': 'BRITANNIA', 'companyName': 'Britannia Industries Limited', 'industry': 'FOOD AND FOOD PROCESSING', 'activeSeries': ['EQ'], 'debtSeries': ['N2', 'N3'], 'tempSuspendedSeries': ['N1'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': True, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE216A08027'}</t>
+          <t>{'symbol': 'LT', 'companyName': 'Larsen &amp; Toubro Limited', 'industry': 'ENGINEERING', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE018A01030'}</t>
         </is>
       </c>
     </row>
@@ -4281,63 +4281,63 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>TECHM</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>TATACONSUMEQN</t>
+          <t>TECHMEQN</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>809</v>
+        <v>1058.95</v>
       </c>
       <c r="F37" t="n">
-        <v>814.7</v>
+        <v>1058.95</v>
       </c>
       <c r="G37" t="n">
-        <v>803.8</v>
+        <v>1037.8</v>
       </c>
       <c r="H37" t="n">
-        <v>811.05</v>
+        <v>1051</v>
       </c>
       <c r="I37" t="n">
-        <v>806.6</v>
+        <v>1048.65</v>
       </c>
       <c r="J37" t="n">
-        <v>4.45</v>
+        <v>2.35</v>
       </c>
       <c r="K37" t="n">
-        <v>0.55</v>
+        <v>0.22</v>
       </c>
       <c r="L37" t="n">
-        <v>486185342161.84</v>
+        <v>663424082097.92</v>
       </c>
       <c r="M37" t="n">
-        <v>889</v>
+        <v>1838</v>
       </c>
       <c r="N37" t="n">
-        <v>650.2</v>
+        <v>943.7</v>
       </c>
       <c r="O37" t="n">
-        <v>867439</v>
+        <v>2540084</v>
       </c>
       <c r="P37" t="n">
-        <v>702035731.48</v>
+        <v>2663278074</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:58:07</t>
+          <t>01-Aug-2022 15:59:43</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>8.768278965129364</v>
+        <v>42.81828073993471</v>
       </c>
       <c r="S37" t="n">
-        <v>-24.73854198708088</v>
+        <v>-11.37013881530147</v>
       </c>
       <c r="T37" t="n">
-        <v>7.33</v>
+        <v>-13.3</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -4346,25 +4346,25 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/TATACONSUM-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/TECHM-EQ.jpg</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X37" t="n">
-        <v>14.91</v>
+        <v>3.75</v>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/TATACONSUM-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/TECHM-EQ.jpg</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/TATACONSUMEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/TECHMEQN.jpg</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>{'symbol': 'TATACONSUM', 'companyName': 'TATA CONSUMER PRODUCTS LIMITED', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE192A01025'}</t>
+          <t>{'symbol': 'TECHM', 'companyName': 'Tech Mahindra Limited', 'industry': 'COMPUTERS - SOFTWARE', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE669C01036'}</t>
         </is>
       </c>
     </row>
@@ -4387,63 +4387,63 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>INFY</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>MARUTIEQN</t>
+          <t>INFYEQN</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>8764.700000000001</v>
+        <v>1564</v>
       </c>
       <c r="F38" t="n">
-        <v>8943</v>
+        <v>1564</v>
       </c>
       <c r="G38" t="n">
-        <v>8730</v>
+        <v>1537.9</v>
       </c>
       <c r="H38" t="n">
-        <v>8766</v>
+        <v>1551.5</v>
       </c>
       <c r="I38" t="n">
-        <v>8721.049999999999</v>
+        <v>1549.7</v>
       </c>
       <c r="J38" t="n">
-        <v>44.95</v>
+        <v>1.8</v>
       </c>
       <c r="K38" t="n">
-        <v>0.52</v>
+        <v>0.12</v>
       </c>
       <c r="L38" t="n">
-        <v>1166138384581.72</v>
+        <v>5677582118676.85</v>
       </c>
       <c r="M38" t="n">
-        <v>9050</v>
+        <v>1953.9</v>
       </c>
       <c r="N38" t="n">
-        <v>6536.55</v>
+        <v>1367.15</v>
       </c>
       <c r="O38" t="n">
-        <v>821432</v>
+        <v>2983249</v>
       </c>
       <c r="P38" t="n">
-        <v>7241687011.76</v>
+        <v>4624662432.29</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:58:02</t>
+          <t>01-Aug-2022 15:59:58</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.138121546961326</v>
+        <v>20.59470801985772</v>
       </c>
       <c r="S38" t="n">
-        <v>-34.10744199921977</v>
+        <v>-13.48425556815272</v>
       </c>
       <c r="T38" t="n">
-        <v>25.74</v>
+        <v>-3.78</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -4452,25 +4452,25 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/MARUTI-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/INFY-EQ.jpg</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X38" t="n">
-        <v>3.57</v>
+        <v>4.75</v>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/MARUTI-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/INFY-EQ.jpg</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/MARUTIEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/INFYEQN.jpg</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>{'symbol': 'MARUTI', 'companyName': 'Maruti Suzuki India Limited', 'industry': 'AUTOMOBILES - 4 WHEELERS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE585B01010'}</t>
+          <t>{'symbol': 'INFY', 'companyName': 'Infosys Limited', 'industry': 'COMPUTERS - SOFTWARE', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE009A01021'}</t>
         </is>
       </c>
     </row>
@@ -4493,63 +4493,63 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>HDFC</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ICICIBANKEQN</t>
+          <t>HDFCEQN</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>820.65</v>
+        <v>2397</v>
       </c>
       <c r="F39" t="n">
-        <v>823.4</v>
+        <v>2397</v>
       </c>
       <c r="G39" t="n">
-        <v>808</v>
+        <v>2362.05</v>
       </c>
       <c r="H39" t="n">
-        <v>818.7</v>
+        <v>2380</v>
       </c>
       <c r="I39" t="n">
-        <v>814.6</v>
+        <v>2377.8</v>
       </c>
       <c r="J39" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="K39" t="n">
-        <v>0.5</v>
+        <v>0.09</v>
       </c>
       <c r="L39" t="n">
-        <v>5693580971077.8</v>
+        <v>4318466795680</v>
       </c>
       <c r="M39" t="n">
-        <v>867</v>
+        <v>3021.1</v>
       </c>
       <c r="N39" t="n">
-        <v>642.15</v>
+        <v>2026</v>
       </c>
       <c r="O39" t="n">
-        <v>11095993</v>
+        <v>2297226</v>
       </c>
       <c r="P39" t="n">
-        <v>9050668610.309999</v>
+        <v>5462435871.84</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:52</t>
+          <t>01-Aug-2022 15:58:31</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>5.570934256055358</v>
+        <v>21.22074740988382</v>
       </c>
       <c r="S39" t="n">
-        <v>-27.4935762672273</v>
+        <v>-17.47285291214215</v>
       </c>
       <c r="T39" t="n">
-        <v>19.94</v>
+        <v>-2.6</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
@@ -4558,25 +4558,25 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/ICICIBANK-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/HDFC-EQ.jpg</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X39" t="n">
-        <v>15.75</v>
+        <v>7.57</v>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/ICICIBANK-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/HDFC-EQ.jpg</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/ICICIBANKEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/HDFCEQN.jpg</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>{'symbol': 'ICICIBANK', 'companyName': 'ICICI Bank Limited', 'industry': 'BANKS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['E2', 'IL'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE090A01021'}</t>
+          <t>{'symbol': 'HDFC', 'companyName': 'Housing Development Finance Corporation Limited', 'industry': 'FINANCE - HOUSING', 'activeSeries': ['EQ', 'W3'], 'debtSeries': [], 'tempSuspendedSeries': ['W1', 'W2'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE001A13049'}</t>
         </is>
       </c>
     </row>
@@ -4599,63 +4599,63 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>BAJAJFINSV</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HINDUNILVREQN</t>
+          <t>BAJAJFINSVEQN</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2640</v>
+        <v>15199.95</v>
       </c>
       <c r="F40" t="n">
-        <v>2645</v>
+        <v>15250</v>
       </c>
       <c r="G40" t="n">
-        <v>2596</v>
+        <v>14931</v>
       </c>
       <c r="H40" t="n">
-        <v>2631.75</v>
+        <v>15061.3</v>
       </c>
       <c r="I40" t="n">
-        <v>2620.1</v>
+        <v>15047.6</v>
       </c>
       <c r="J40" t="n">
-        <v>11.65</v>
+        <v>13.7</v>
       </c>
       <c r="K40" t="n">
-        <v>0.44</v>
+        <v>0.09</v>
       </c>
       <c r="L40" t="n">
-        <v>2354788557871.54</v>
+        <v>911503950719.4301</v>
       </c>
       <c r="M40" t="n">
-        <v>2859.3</v>
+        <v>19325</v>
       </c>
       <c r="N40" t="n">
-        <v>1901.55</v>
+        <v>10727.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1463059</v>
+        <v>432016</v>
       </c>
       <c r="P40" t="n">
-        <v>3839476472.52</v>
+        <v>6494444686.08</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:58:25</t>
+          <t>01-Aug-2022 15:59:16</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>7.958241527646632</v>
+        <v>22.06313065976714</v>
       </c>
       <c r="S40" t="n">
-        <v>-38.40025242565276</v>
+        <v>-40.40290103661718</v>
       </c>
       <c r="T40" t="n">
-        <v>13.03</v>
+        <v>5.8</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4664,25 +4664,25 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/HINDUNILVR-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/BAJAJFINSV-EQ.jpg</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X40" t="n">
-        <v>18.24</v>
+        <v>32.9</v>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/HINDUNILVR-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/BAJAJFINSV-EQ.jpg</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/HINDUNILVREQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/BAJAJFINSVEQN.jpg</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>{'symbol': 'HINDUNILVR', 'companyName': 'Hindustan Unilever Limited', 'industry': 'DIVERSIFIED', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE030A01027'}</t>
+          <t>{'symbol': 'BAJAJFINSV', 'companyName': 'Bajaj Finserv Limited', 'industry': 'FINANCE', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE918I01018'}</t>
         </is>
       </c>
     </row>
@@ -4705,63 +4705,63 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HCLTECH</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HCLTECHEQN</t>
+          <t>TATACONSUMEQN</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>957</v>
+        <v>812</v>
       </c>
       <c r="F41" t="n">
-        <v>965.7</v>
+        <v>814.5</v>
       </c>
       <c r="G41" t="n">
-        <v>947.15</v>
+        <v>799.45</v>
       </c>
       <c r="H41" t="n">
-        <v>948</v>
+        <v>811.65</v>
       </c>
       <c r="I41" t="n">
-        <v>946.1</v>
+        <v>811.65</v>
       </c>
       <c r="J41" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1003719591048.1</v>
+        <v>485855887423.73</v>
       </c>
       <c r="M41" t="n">
-        <v>1377.75</v>
+        <v>889</v>
       </c>
       <c r="N41" t="n">
-        <v>877.35</v>
+        <v>650.2</v>
       </c>
       <c r="O41" t="n">
-        <v>3617725</v>
+        <v>1269287</v>
       </c>
       <c r="P41" t="n">
-        <v>3455867983.5</v>
+        <v>1024263837.52</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:55</t>
+          <t>01-Aug-2022 15:59:44</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>31.19216113228089</v>
+        <v>8.700787401574805</v>
       </c>
       <c r="S41" t="n">
-        <v>-8.052658574115231</v>
+        <v>-24.83082128575822</v>
       </c>
       <c r="T41" t="n">
-        <v>-7.47</v>
+        <v>7.33</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4770,25 +4770,25 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/HCLTECH-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/TATACONSUM-EQ.jpg</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X41" t="n">
-        <v>-2.55</v>
+        <v>12.8</v>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/HCLTECH-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/TATACONSUM-EQ.jpg</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/HCLTECHEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/TATACONSUMEQN.jpg</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>{'symbol': 'HCLTECH', 'companyName': 'HCL Technologies Limited', 'industry': 'COMPUTERS - SOFTWARE', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE860A01027'}</t>
+          <t>{'symbol': 'TATACONSUM', 'companyName': 'TATA CONSUMER PRODUCTS LIMITED', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE192A01025'}</t>
         </is>
       </c>
     </row>
@@ -4811,63 +4811,63 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>APOLLOHOSPEQN</t>
+          <t>TCSEQN</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4206</v>
+        <v>3327</v>
       </c>
       <c r="F42" t="n">
-        <v>4252.8</v>
+        <v>3327</v>
       </c>
       <c r="G42" t="n">
-        <v>4187</v>
+        <v>3271</v>
       </c>
       <c r="H42" t="n">
-        <v>4197.7</v>
+        <v>3298.65</v>
       </c>
       <c r="I42" t="n">
-        <v>4190.5</v>
+        <v>3301.9</v>
       </c>
       <c r="J42" t="n">
-        <v>7.2</v>
+        <v>-3.25</v>
       </c>
       <c r="K42" t="n">
-        <v>0.17</v>
+        <v>-0.1</v>
       </c>
       <c r="L42" t="n">
-        <v>430021518583.58</v>
+        <v>3416680587390.67</v>
       </c>
       <c r="M42" t="n">
-        <v>5935.4</v>
+        <v>4043</v>
       </c>
       <c r="N42" t="n">
-        <v>3361.55</v>
+        <v>2953</v>
       </c>
       <c r="O42" t="n">
-        <v>333278</v>
+        <v>1306913</v>
       </c>
       <c r="P42" t="n">
-        <v>1404033558.4</v>
+        <v>4308473948.84</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:58:40</t>
+          <t>01-Aug-2022 15:59:52</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>29.27688108636317</v>
+        <v>18.4108335394509</v>
       </c>
       <c r="S42" t="n">
-        <v>-24.87394208029033</v>
+        <v>-11.70504571622079</v>
       </c>
       <c r="T42" t="n">
-        <v>4.39</v>
+        <v>4.24</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4876,25 +4876,25 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/APOLLOHOSP-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/TCS-EQ.jpg</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X42" t="n">
-        <v>14.36</v>
+        <v>-0.4</v>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/APOLLOHOSP-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/TCS-EQ.jpg</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/APOLLOHOSPEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/TCSEQN.jpg</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>{'symbol': 'APOLLOHOSP', 'companyName': 'Apollo Hospitals Enterprise Limited', 'industry': 'MISCELLANEOUS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE437A01024'}</t>
+          <t>{'symbol': 'TCS', 'companyName': 'Tata Consultancy Services Limited', 'industry': 'COMPUTERS - SOFTWARE', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE467B01029'}</t>
         </is>
       </c>
     </row>
@@ -4917,63 +4917,63 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LTEQN</t>
+          <t>ASIANPAINTEQN</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1814.95</v>
+        <v>3340.05</v>
       </c>
       <c r="F43" t="n">
-        <v>1832.5</v>
+        <v>3355</v>
       </c>
       <c r="G43" t="n">
-        <v>1794</v>
+        <v>3314.5</v>
       </c>
       <c r="H43" t="n">
-        <v>1804.05</v>
+        <v>3325</v>
       </c>
       <c r="I43" t="n">
-        <v>1801.25</v>
+        <v>3333.75</v>
       </c>
       <c r="J43" t="n">
-        <v>2.8</v>
+        <v>-8.75</v>
       </c>
       <c r="K43" t="n">
-        <v>0.16</v>
+        <v>-0.26</v>
       </c>
       <c r="L43" t="n">
-        <v>2184892622472.98</v>
+        <v>1498783475989.92</v>
       </c>
       <c r="M43" t="n">
-        <v>2078.55</v>
+        <v>3590</v>
       </c>
       <c r="N43" t="n">
-        <v>1456.35</v>
+        <v>2560</v>
       </c>
       <c r="O43" t="n">
-        <v>1747781</v>
+        <v>1076122</v>
       </c>
       <c r="P43" t="n">
-        <v>3163588476.86</v>
+        <v>3584723800.3</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:42</t>
+          <t>01-Aug-2022 15:59:11</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>13.20632171465686</v>
+        <v>7.381615598885793</v>
       </c>
       <c r="S43" t="n">
-        <v>-23.8747553816047</v>
+        <v>-29.8828125</v>
       </c>
       <c r="T43" t="n">
-        <v>12.9</v>
+        <v>12.69</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4982,25 +4982,25 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/LT-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/ASIANPAINT-EQ.jpg</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X43" t="n">
-        <v>16.03</v>
+        <v>20.22</v>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/LT-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/ASIANPAINT-EQ.jpg</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/LTEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/ASIANPAINTEQN.jpg</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>{'symbol': 'LT', 'companyName': 'Larsen &amp; Toubro Limited', 'industry': 'ENGINEERING', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE018A01030'}</t>
+          <t>{'symbol': 'ASIANPAINT', 'companyName': 'Asian Paints Limited', 'industry': 'PAINTS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE021A01026'}</t>
         </is>
       </c>
     </row>
@@ -5023,63 +5023,63 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>GRASIM</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ITCEQN</t>
+          <t>GRASIMEQN</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>305</v>
+        <v>1576.4</v>
       </c>
       <c r="F44" t="n">
-        <v>305.9</v>
+        <v>1589.35</v>
       </c>
       <c r="G44" t="n">
-        <v>301.35</v>
+        <v>1560.05</v>
       </c>
       <c r="H44" t="n">
-        <v>303.9</v>
+        <v>1568.6</v>
       </c>
       <c r="I44" t="n">
-        <v>303.45</v>
+        <v>1573</v>
       </c>
       <c r="J44" t="n">
-        <v>0.45</v>
+        <v>-4.4</v>
       </c>
       <c r="K44" t="n">
-        <v>0.15</v>
+        <v>-0.28</v>
       </c>
       <c r="L44" t="n">
-        <v>2651539524236.75</v>
+        <v>588508211298.89</v>
       </c>
       <c r="M44" t="n">
-        <v>305.9</v>
+        <v>1929.8</v>
       </c>
       <c r="N44" t="n">
-        <v>204.35</v>
+        <v>1276.6</v>
       </c>
       <c r="O44" t="n">
-        <v>16932743</v>
+        <v>554356</v>
       </c>
       <c r="P44" t="n">
-        <v>5126557270.68</v>
+        <v>871508611.16</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:47</t>
+          <t>01-Aug-2022 15:59:46</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>0.6538084341288003</v>
+        <v>18.71696548865168</v>
       </c>
       <c r="S44" t="n">
-        <v>-48.71543919745534</v>
+        <v>-22.87325708914304</v>
       </c>
       <c r="T44" t="n">
-        <v>47.87</v>
+        <v>1.4</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -5088,25 +5088,25 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/ITC-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/GRASIM-EQ.jpg</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X44" t="n">
-        <v>10.8</v>
+        <v>16.76</v>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/ITC-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/GRASIM-EQ.jpg</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/ITCEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/GRASIMEQN.jpg</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>{'symbol': 'ITC', 'companyName': 'ITC Limited', 'industry': 'CIGARETTES', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE154A01025'}</t>
+          <t>{'symbol': 'GRASIM', 'companyName': 'Grasim Industries Limited', 'industry': 'CEMENT AND CEMENT PRODUCTS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE047A01021'}</t>
         </is>
       </c>
     </row>
@@ -5129,63 +5129,63 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SHREECEM</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SHREECEMEQN</t>
+          <t>EICHERMOTEQN</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>20425</v>
+        <v>3109.9</v>
       </c>
       <c r="F45" t="n">
-        <v>20714.9</v>
+        <v>3175.55</v>
       </c>
       <c r="G45" t="n">
-        <v>20172.45</v>
+        <v>3072.4</v>
       </c>
       <c r="H45" t="n">
-        <v>20425.25</v>
+        <v>3084</v>
       </c>
       <c r="I45" t="n">
-        <v>20415.45</v>
+        <v>3093.45</v>
       </c>
       <c r="J45" t="n">
-        <v>9.800000000000001</v>
+        <v>-9.449999999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>0.05</v>
+        <v>-0.31</v>
       </c>
       <c r="L45" t="n">
-        <v>273645773826.48</v>
+        <v>430673409923.57</v>
       </c>
       <c r="M45" t="n">
-        <v>31469.95</v>
+        <v>3179</v>
       </c>
       <c r="N45" t="n">
-        <v>17865.2</v>
+        <v>2159.55</v>
       </c>
       <c r="O45" t="n">
-        <v>54333</v>
+        <v>891876</v>
       </c>
       <c r="P45" t="n">
-        <v>1110930007.77</v>
+        <v>2772048714.36</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:55:16</t>
+          <t>01-Aug-2022 15:56:45</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>35.09602017162404</v>
+        <v>2.988361119849009</v>
       </c>
       <c r="S45" t="n">
-        <v>-14.32981438774824</v>
+        <v>-42.8075293463916</v>
       </c>
       <c r="T45" t="n">
-        <v>-27.48</v>
+        <v>22.26</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
@@ -5194,25 +5194,25 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/SHREECEM-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/EICHERMOT-EQ.jpg</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X45" t="n">
-        <v>7.83</v>
+        <v>11.16</v>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/SHREECEM-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/EICHERMOT-EQ.jpg</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/SHREECEMEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/EICHERMOTEQN.jpg</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>{'symbol': 'SHREECEM', 'companyName': 'SHREE CEMENT LIMITED', 'industry': 'CEMENT AND CEMENT PRODUCTS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE070A01015'}</t>
+          <t>{'symbol': 'EICHERMOT', 'companyName': 'Eicher Motors Limited', 'industry': 'AUTOMOBILES - 4 WHEELERS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE066A01021'}</t>
         </is>
       </c>
     </row>
@@ -5235,63 +5235,63 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>POWERGRIDEQN</t>
+          <t>INDUSINDBKEQN</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>216.4</v>
+        <v>1040</v>
       </c>
       <c r="F46" t="n">
-        <v>217.8</v>
+        <v>1047.9</v>
       </c>
       <c r="G46" t="n">
-        <v>212.85</v>
+        <v>1024.55</v>
       </c>
       <c r="H46" t="n">
-        <v>214.15</v>
+        <v>1039</v>
       </c>
       <c r="I46" t="n">
-        <v>214.2</v>
+        <v>1043.5</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.05</v>
+        <v>-4.5</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.02</v>
+        <v>-0.43</v>
       </c>
       <c r="L46" t="n">
-        <v>731275088723.87</v>
+        <v>677138037060.62</v>
       </c>
       <c r="M46" t="n">
-        <v>248.35</v>
+        <v>1242</v>
       </c>
       <c r="N46" t="n">
-        <v>167.15</v>
+        <v>763.2</v>
       </c>
       <c r="O46" t="n">
-        <v>11574801</v>
+        <v>4299697</v>
       </c>
       <c r="P46" t="n">
-        <v>2485572766.74</v>
+        <v>4455904992.009999</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:20</t>
+          <t>01-Aug-2022 15:57:19</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>13.77088785987517</v>
+        <v>16.34460547504026</v>
       </c>
       <c r="S46" t="n">
-        <v>-28.11845647621896</v>
+        <v>-36.13731656184486</v>
       </c>
       <c r="T46" t="n">
-        <v>25.01</v>
+        <v>6.37</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -5300,25 +5300,25 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/POWERGRID-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/INDUSINDBK-EQ.jpg</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.97</v>
+        <v>29.27</v>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/POWERGRID-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/INDUSINDBK-EQ.jpg</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/POWERGRIDEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/INDUSINDBKEQN.jpg</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>{'symbol': 'POWERGRID', 'companyName': 'Power Grid Corporation of India Limited', 'industry': 'POWER', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE752E01010'}</t>
+          <t>{'symbol': 'INDUSINDBK', 'companyName': 'IndusInd Bank Limited', 'industry': 'BANKS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE095A01012'}</t>
         </is>
       </c>
     </row>
@@ -5341,63 +5341,63 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ADANIPORTS</t>
+          <t>NESTLEIND</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ADANIPORTSEQN</t>
+          <t>NESTLEINDEQN</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>769</v>
+        <v>19442</v>
       </c>
       <c r="F47" t="n">
-        <v>775.65</v>
+        <v>19500</v>
       </c>
       <c r="G47" t="n">
-        <v>758.85</v>
+        <v>19105</v>
       </c>
       <c r="H47" t="n">
-        <v>764</v>
+        <v>19263</v>
       </c>
       <c r="I47" t="n">
-        <v>764.5</v>
+        <v>19359.1</v>
       </c>
       <c r="J47" t="n">
+        <v>-96.09999999999999</v>
+      </c>
+      <c r="K47" t="n">
         <v>-0.5</v>
       </c>
-      <c r="K47" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
       <c r="L47" t="n">
-        <v>548494608155.34</v>
+        <v>686906441047.58</v>
       </c>
       <c r="M47" t="n">
-        <v>924.65</v>
+        <v>20609.15</v>
       </c>
       <c r="N47" t="n">
-        <v>651.95</v>
+        <v>16000</v>
       </c>
       <c r="O47" t="n">
-        <v>3182798</v>
+        <v>58567</v>
       </c>
       <c r="P47" t="n">
-        <v>2440537678.42</v>
+        <v>1127706999.33</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:13</t>
+          <t>01-Aug-2022 15:59:41</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>17.37414156707943</v>
+        <v>6.53180747386477</v>
       </c>
       <c r="S47" t="n">
-        <v>-17.18690083595367</v>
+        <v>-20.39375</v>
       </c>
       <c r="T47" t="n">
-        <v>13.22</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
@@ -5406,25 +5406,25 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/ADANIPORTS-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/NESTLEIND-EQ.jpg</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X47" t="n">
-        <v>13.64</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/ADANIPORTS-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/NESTLEIND-EQ.jpg</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/ADANIPORTSEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/NESTLEINDEQN.jpg</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>{'symbol': 'ADANIPORTS', 'companyName': 'Adani Ports and Special Economic Zone Limited', 'industry': 'SHIPPING', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE742F01042'}</t>
+          <t>{'symbol': 'NESTLEIND', 'companyName': 'Nestle India Limited', 'industry': 'FOOD AND FOOD PROCESSING', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE239A01016'}</t>
         </is>
       </c>
     </row>
@@ -5447,63 +5447,63 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>DIVISLAB</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>AXISBANKEQN</t>
+          <t>DIVISLABEQN</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>733.9</v>
+        <v>3835</v>
       </c>
       <c r="F48" t="n">
-        <v>734.95</v>
+        <v>3857.2</v>
       </c>
       <c r="G48" t="n">
-        <v>723</v>
+        <v>3782.25</v>
       </c>
       <c r="H48" t="n">
-        <v>724.5</v>
+        <v>3797</v>
       </c>
       <c r="I48" t="n">
-        <v>725.9</v>
+        <v>3831.65</v>
       </c>
       <c r="J48" t="n">
-        <v>-1.4</v>
+        <v>-34.65</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.19</v>
+        <v>-0.9</v>
       </c>
       <c r="L48" t="n">
-        <v>1914337146388.81</v>
+        <v>483603050311.68</v>
       </c>
       <c r="M48" t="n">
-        <v>866.9</v>
+        <v>5425.1</v>
       </c>
       <c r="N48" t="n">
-        <v>618.25</v>
+        <v>3365.55</v>
       </c>
       <c r="O48" t="n">
-        <v>6624854</v>
+        <v>364990</v>
       </c>
       <c r="P48" t="n">
-        <v>4817660077.34</v>
+        <v>1390407505.6</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:57</t>
+          <t>01-Aug-2022 15:59:42</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>16.42634675279732</v>
+        <v>30.01050671877016</v>
       </c>
       <c r="S48" t="n">
-        <v>-17.18560452891225</v>
+        <v>-12.81959857972693</v>
       </c>
       <c r="T48" t="n">
-        <v>2.24</v>
+        <v>-21.9</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
@@ -5512,25 +5512,25 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/AXISBANK-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/DIVISLAB-EQ.jpg</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X48" t="n">
-        <v>13.81</v>
+        <v>5.34</v>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/AXISBANK-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/DIVISLAB-EQ.jpg</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/AXISBANKEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/DIVISLABEQN.jpg</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>{'symbol': 'AXISBANK', 'companyName': 'Axis Bank Limited', 'industry': 'BANKS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE238A01034'}</t>
+          <t>{'symbol': 'DIVISLAB', 'companyName': "Divi's Laboratories Limited", 'industry': 'PHARMACEUTICALS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE361B01024'}</t>
         </is>
       </c>
     </row>
@@ -5553,63 +5553,63 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>BRITANNIA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DIVISLABEQN</t>
+          <t>BRITANNIAEQN</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3865</v>
+        <v>3900.4</v>
       </c>
       <c r="F49" t="n">
-        <v>3884.3</v>
+        <v>3916</v>
       </c>
       <c r="G49" t="n">
-        <v>3820</v>
+        <v>3838.2</v>
       </c>
       <c r="H49" t="n">
-        <v>3827</v>
+        <v>3861</v>
       </c>
       <c r="I49" t="n">
-        <v>3849.65</v>
+        <v>3900.4</v>
       </c>
       <c r="J49" t="n">
-        <v>-22.65</v>
+        <v>-39.4</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.59</v>
+        <v>-1.01</v>
       </c>
       <c r="L49" t="n">
-        <v>488247688587.36</v>
+        <v>455064884281.48</v>
       </c>
       <c r="M49" t="n">
-        <v>5425.1</v>
+        <v>4153</v>
       </c>
       <c r="N49" t="n">
-        <v>3365.55</v>
+        <v>3050</v>
       </c>
       <c r="O49" t="n">
-        <v>406169</v>
+        <v>323129</v>
       </c>
       <c r="P49" t="n">
-        <v>1561528905.57</v>
+        <v>1246579981.36</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:58:40</t>
+          <t>01-Aug-2022 15:57:26</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>29.45752152034064</v>
+        <v>7.031061882976162</v>
       </c>
       <c r="S49" t="n">
-        <v>-13.71098334596128</v>
+        <v>-26.59016393442623</v>
       </c>
       <c r="T49" t="n">
-        <v>-21.9</v>
+        <v>13.93</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -5618,25 +5618,25 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/DIVISLAB-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/BRITANNIA-EQ.jpg</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X49" t="n">
-        <v>5.54</v>
+        <v>8.82</v>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/DIVISLAB-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/BRITANNIA-EQ.jpg</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/DIVISLABEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/BRITANNIAEQN.jpg</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>{'symbol': 'DIVISLAB', 'companyName': "Divi's Laboratories Limited", 'industry': 'PHARMACEUTICALS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE361B01024'}</t>
+          <t>{'symbol': 'BRITANNIA', 'companyName': 'Britannia Industries Limited', 'industry': 'FOOD AND FOOD PROCESSING', 'activeSeries': ['EQ'], 'debtSeries': ['N2', 'N3'], 'tempSuspendedSeries': ['N1'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': True, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE216A08027'}</t>
         </is>
       </c>
     </row>
@@ -5659,63 +5659,63 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>KOTAKBANK</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>KOTAKBANKEQN</t>
+          <t>HINDUNILVREQN</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1837.65</v>
+        <v>2637.5</v>
       </c>
       <c r="F50" t="n">
-        <v>1856.9</v>
+        <v>2638</v>
       </c>
       <c r="G50" t="n">
-        <v>1803.65</v>
+        <v>2580</v>
       </c>
       <c r="H50" t="n">
-        <v>1814</v>
+        <v>2597</v>
       </c>
       <c r="I50" t="n">
-        <v>1828.5</v>
+        <v>2637.4</v>
       </c>
       <c r="J50" t="n">
-        <v>-14.5</v>
+        <v>-40.4</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.79</v>
+        <v>-1.53</v>
       </c>
       <c r="L50" t="n">
-        <v>2659420122573.22</v>
+        <v>2315146254099.08</v>
       </c>
       <c r="M50" t="n">
-        <v>2253</v>
+        <v>2859.3</v>
       </c>
       <c r="N50" t="n">
-        <v>1626</v>
+        <v>1901.55</v>
       </c>
       <c r="O50" t="n">
-        <v>2387998</v>
+        <v>1559918</v>
       </c>
       <c r="P50" t="n">
-        <v>4360269428.18</v>
+        <v>4055459217.22</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:57</t>
+          <t>01-Aug-2022 15:59:42</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>19.48513093652907</v>
+        <v>9.173573951666498</v>
       </c>
       <c r="S50" t="n">
-        <v>-11.56211562115621</v>
+        <v>-36.57279587704767</v>
       </c>
       <c r="T50" t="n">
-        <v>9.4</v>
+        <v>13.03</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5724,25 +5724,25 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/KOTAKBANK-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/HINDUNILVR-EQ.jpg</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X50" t="n">
-        <v>8.99</v>
+        <v>15.56</v>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/KOTAKBANK-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/HINDUNILVR-EQ.jpg</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/KOTAKBANKEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/HINDUNILVREQN.jpg</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>{'symbol': 'KOTAKBANK', 'companyName': 'Kotak Mahindra Bank Limited', 'industry': 'BANKS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE237A01028'}</t>
+          <t>{'symbol': 'HINDUNILVR', 'companyName': 'Hindustan Unilever Limited', 'industry': 'DIVERSIFIED', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE030A01027'}</t>
         </is>
       </c>
     </row>
@@ -5765,63 +5765,63 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>HDFCLIFE</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SBINEQN</t>
+          <t>HDFCLIFEEQN</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>535.05</v>
+        <v>560</v>
       </c>
       <c r="F51" t="n">
-        <v>537</v>
+        <v>560.2</v>
       </c>
       <c r="G51" t="n">
-        <v>526.75</v>
+        <v>544.4</v>
       </c>
       <c r="H51" t="n">
-        <v>527.65</v>
+        <v>545</v>
       </c>
       <c r="I51" t="n">
-        <v>532.45</v>
+        <v>555.5</v>
       </c>
       <c r="J51" t="n">
-        <v>-4.8</v>
+        <v>-10.5</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.9</v>
+        <v>-1.89</v>
       </c>
       <c r="L51" t="n">
-        <v>2027587002153.33</v>
+        <v>507691282796.13</v>
       </c>
       <c r="M51" t="n">
-        <v>549</v>
+        <v>775.65</v>
       </c>
       <c r="N51" t="n">
-        <v>401.25</v>
+        <v>497.05</v>
       </c>
       <c r="O51" t="n">
-        <v>11921058</v>
+        <v>4482787</v>
       </c>
       <c r="P51" t="n">
-        <v>6315895738.98</v>
+        <v>2461050063</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:48</t>
+          <t>01-Aug-2022 15:59:55</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.888888888888893</v>
+        <v>29.73635015793205</v>
       </c>
       <c r="S51" t="n">
-        <v>-31.50155763239875</v>
+        <v>-9.646916809174126</v>
       </c>
       <c r="T51" t="n">
-        <v>22.36</v>
+        <v>-16.35</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5830,25 +5830,25 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/SBIN-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/HDFCLIFE-EQ.jpg</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X51" t="n">
-        <v>13.4</v>
+        <v>-1.76</v>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/SBIN-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/HDFCLIFE-EQ.jpg</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/SBINEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/HDFCLIFEEQN.jpg</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>{'symbol': 'SBIN', 'companyName': 'State Bank of India', 'industry': 'BANKS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['IL', 'N1', 'N2', 'N3', 'N4', 'N5', 'N6'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE062A08066'}</t>
+          <t>{'symbol': 'HDFCLIFE', 'companyName': 'HDFC Life Insurance Company Limited', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': [], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE795G01014'}</t>
         </is>
       </c>
     </row>
@@ -5871,63 +5871,63 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DRREDDY</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DRREDDYEQN</t>
+          <t>SUNPHARMAEQN</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4182.95</v>
+        <v>939.95</v>
       </c>
       <c r="F52" t="n">
-        <v>4182.95</v>
+        <v>939.95</v>
       </c>
       <c r="G52" t="n">
-        <v>4055.6</v>
+        <v>910</v>
       </c>
       <c r="H52" t="n">
-        <v>4091</v>
+        <v>916.25</v>
       </c>
       <c r="I52" t="n">
-        <v>4260.05</v>
+        <v>943.2</v>
       </c>
       <c r="J52" t="n">
-        <v>-169.05</v>
+        <v>-26.95</v>
       </c>
       <c r="K52" t="n">
-        <v>-3.97</v>
+        <v>-2.86</v>
       </c>
       <c r="L52" t="n">
-        <v>496940179163.72</v>
+        <v>991921066622.55</v>
       </c>
       <c r="M52" t="n">
-        <v>5077</v>
+        <v>967.05</v>
       </c>
       <c r="N52" t="n">
-        <v>3654</v>
+        <v>680.7</v>
       </c>
       <c r="O52" t="n">
-        <v>1974495</v>
+        <v>4219890</v>
       </c>
       <c r="P52" t="n">
-        <v>8090927651.400001</v>
+        <v>3881243827.5</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>29-Jul-2022 15:59:43</t>
+          <t>01-Aug-2022 15:59:39</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>19.42091786488083</v>
+        <v>5.253089292177235</v>
       </c>
       <c r="S52" t="n">
-        <v>-11.95949644225506</v>
+        <v>-34.6040840311444</v>
       </c>
       <c r="T52" t="n">
-        <v>-13.18</v>
+        <v>21.87</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
@@ -5936,25 +5936,25 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/365d/DRREDDY-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/365d/SUNPHARMA-EQ.jpg</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>30-Jun-2022</t>
+          <t>01-Jul-2022</t>
         </is>
       </c>
       <c r="X52" t="n">
-        <v>-6.91</v>
+        <v>13.74</v>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/30d/DRREDDY-EQ.jpg</t>
+          <t>https://static.nseindia.com/sparklines/30d/SUNPHARMA-EQ.jpg</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>https://static.nseindia.com/sparklines/today/DRREDDYEQN.jpg</t>
+          <t>https://static.nseindia.com/sparklines/today/SUNPHARMAEQN.jpg</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>{'symbol': 'DRREDDY', 'companyName': "Dr. Reddy's Laboratories Limited", 'industry': 'PHARMACEUTICALS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['N1'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE089A08051'}</t>
+          <t>{'symbol': 'SUNPHARMA', 'companyName': 'Sun Pharmaceutical Industries Limited', 'industry': 'PHARMACEUTICALS', 'activeSeries': ['EQ'], 'debtSeries': [], 'tempSuspendedSeries': ['P1'], 'isFNOSec': True, 'isCASec': False, 'isSLBSec': True, 'isDebtSec': False, 'isSuspended': False, 'isETFSec': False, 'isDelisted': False, 'isin': 'INE044A04014'}</t>
         </is>
       </c>
     </row>
